--- a/2 Architecture/Product Architecture.xlsx
+++ b/2 Architecture/Product Architecture.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="183">
   <si>
     <t>Project</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Uno / DDS Pin Interface</t>
   </si>
   <si>
-    <t>DDS Pin Interface / DIP Switch</t>
-  </si>
-  <si>
     <t>ATTiny Program 1 Signal</t>
   </si>
   <si>
@@ -408,42 +405,18 @@
     <t>ATTiny Program 3 Signal / State LED Signal</t>
   </si>
   <si>
-    <t>Dip 1</t>
-  </si>
-  <si>
-    <t>Dip 2</t>
-  </si>
-  <si>
-    <t>Dip 3</t>
-  </si>
-  <si>
-    <t>Dip 4</t>
-  </si>
-  <si>
     <t>0v</t>
   </si>
   <si>
-    <t>32KHz sampling frequency</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
-    <t xml:space="preserve">ATTiny Program 3 Signal </t>
-  </si>
-  <si>
     <t>State LED Signal</t>
   </si>
   <si>
-    <t xml:space="preserve">ATTiny Program 2 Signal </t>
-  </si>
-  <si>
     <t>On-Off State Signal</t>
   </si>
   <si>
-    <t xml:space="preserve">ATTiny Program 1 Signal </t>
-  </si>
-  <si>
     <t>Var. Freq. Signal</t>
   </si>
   <si>
@@ -486,17 +459,161 @@
     <t>Perameters</t>
   </si>
   <si>
-    <t>ATTiny85 output pin</t>
-  </si>
-  <si>
-    <t>pin voltage = 4.3v if at 5v =vcc</t>
+    <t>320kHz</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>555 Timer Frequency calculation</t>
+  </si>
+  <si>
+    <t>t_high = .693(R1 + R2)C</t>
+  </si>
+  <si>
+    <t>t_low = .693(R2)C</t>
+  </si>
+  <si>
+    <t>t_high</t>
+  </si>
+  <si>
+    <t>t_low</t>
+  </si>
+  <si>
+    <t>t = t_high + t_low</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f = 1 / t</t>
+  </si>
+  <si>
+    <t>ATTiny85 Pins (Page 161 on the atttiny85 document)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outline of Signal Flow </t>
+  </si>
+  <si>
+    <t>LPF Filter Component Design</t>
+  </si>
+  <si>
+    <t>HPF Filter Component Design</t>
+  </si>
+  <si>
+    <t>HPF Voltage Output</t>
+  </si>
+  <si>
+    <t>Vout = Vin * (R / (R^2 + Xc^2)^.5)</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vout </t>
+  </si>
+  <si>
+    <t>Vout = Rf/Rin(V1 + V2 + V3 + V4)</t>
+  </si>
+  <si>
+    <t>speed = frequency • wavelength</t>
+  </si>
+  <si>
+    <t>m/s / 1 / s = m</t>
+  </si>
+  <si>
+    <t>f_fund (max)</t>
+  </si>
+  <si>
+    <t>f_harmonic (max)</t>
+  </si>
+  <si>
+    <t>Copper permuability constant</t>
+  </si>
+  <si>
+    <t>Speed of light</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Pin output low voltage. With VCC= 5V  Vout max = .6V</t>
+  </si>
+  <si>
+    <t>Pin output High voltage. With VCC= 5V  Vout min = 4.3V</t>
+  </si>
+  <si>
+    <t>1. Signal out of the ATTiny85</t>
+  </si>
+  <si>
+    <t>2. Signal into LPF</t>
+  </si>
+  <si>
+    <t>3A. Wire</t>
+  </si>
+  <si>
+    <t>3B. Signal into EQ</t>
+  </si>
+  <si>
+    <t>5. Sgnal to speaker</t>
+  </si>
+  <si>
+    <t>High voltage worst case 4.3V</t>
+  </si>
+  <si>
+    <t>Low voltage worst case .6V</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (LPF) Component Design</t>
+  </si>
+  <si>
+    <t>f = 1 / (2πRC)</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (HPF) Component Design</t>
+  </si>
+  <si>
+    <t>4. Signal into Summing Amp</t>
+  </si>
+  <si>
+    <t>V4 worst case when off it could be .4V, should be irrevelant</t>
+  </si>
+  <si>
+    <t>Random Notes</t>
+  </si>
+  <si>
+    <t>5. The length calculation</t>
+  </si>
+  <si>
+    <t>You need to explain this stuff to me better lol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -569,8 +686,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +707,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -606,8 +736,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -628,8 +773,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,7 +797,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -696,8 +841,21 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="20" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="20"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -718,6 +876,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="19" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="20" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -738,13 +897,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -791,16 +950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2409825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2571750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,7 +983,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7115175" y="6734175"/>
+          <a:off x="11325225" y="6505575"/>
           <a:ext cx="2409825" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -846,16 +1005,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -879,7 +1038,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7134225" y="7553325"/>
+          <a:off x="11477625" y="7419975"/>
           <a:ext cx="1152525" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -899,6 +1058,156 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409825" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="capacitive reactance equation"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11210925" y="18183225"/>
+          <a:ext cx="2409825" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152525" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="http://sim.okawa-denshi.jp/images/CRLowD.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11315700" y="19040475"/>
+          <a:ext cx="1152525" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409825" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="capacitive reactance equation"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11210925" y="20478750"/>
+          <a:ext cx="2409825" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1227,7 +1536,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1244,40 +1553,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>42882</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1309,362 +1618,371 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>135</v>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
+      <c r="E10" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
+      <c r="E11" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
+      <c r="E12" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
+      <c r="E13" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
+      <c r="E15" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
+      <c r="E16" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="F17" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="E19" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="10"/>
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="26" t="s">
-        <v>123</v>
+      <c r="A21" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="10"/>
+      <c r="C21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="26" t="s">
-        <v>125</v>
+      <c r="A22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="L27" s="10"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="11" t="s">
+      <c r="F27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>122</v>
+      <c r="B28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="F36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1682,7 +2000,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1694,57 +2012,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>42882</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1752,15 +2070,15 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1768,98 +2086,98 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>102</v>
+      <c r="C12" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>103</v>
+      <c r="C13" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>104</v>
+      <c r="C14" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>105</v>
+      <c r="C15" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>129</v>
+      <c r="C16" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>130</v>
+      <c r="C17" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>131</v>
+      <c r="C18" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>132</v>
+      <c r="C19" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1867,230 +2185,194 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="I22" s="1"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="11"/>
+      <c r="A23" s="25"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="11"/>
+      <c r="A24" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>132</v>
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="26" t="s">
-        <v>106</v>
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="G46" s="11"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="6:8" ht="15.75" customHeight="1">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="6:8" ht="15.75" customHeight="1">
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="6:8" ht="15.75" customHeight="1">
+      <c r="G46" s="10"/>
     </row>
     <row r="50" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="6:8" ht="15.75" customHeight="1">
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2119,40 +2401,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>42882</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="3"/>
@@ -2194,8 +2476,8 @@
         <f t="shared" ref="D7:D8" si="0">B7*C7</f>
         <v>0.15</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2213,8 +2495,8 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2222,17 +2504,17 @@
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>0.5</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>0.1</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>0.05</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="29" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2249,8 +2531,8 @@
       <c r="D10" s="8">
         <v>0.01</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2267,8 +2549,8 @@
       <c r="D11" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2276,7 +2558,7 @@
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>0.5</v>
       </c>
       <c r="C12" s="8">
@@ -2285,8 +2567,8 @@
       <c r="D12" s="8">
         <v>0.05</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="27" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2303,8 +2585,8 @@
       <c r="D13" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2327,7 +2609,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B17" s="28"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
@@ -7259,10 +7541,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7271,739 +7553,2026 @@
     <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="7" width="43" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>42882</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5">
+      <c r="A8" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="17">
+        <v>270</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="34">
+        <f xml:space="preserve"> 1 / (2*3.1415*B25*B26)</f>
+        <v>5894.8013746676806</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="34">
+        <f xml:space="preserve"> 1 / (B24*2*3.1415*B26)</f>
+        <v>79.579818558013699</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="34">
+        <f xml:space="preserve"> 1 / (B24*2*3.1415*B25)</f>
+        <v>2.9474006873338404E-8</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A33" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="17">
+        <f xml:space="preserve"> B30</f>
+        <v>2.9474006873338404E-8</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B36" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="39">
+        <f xml:space="preserve"> 1 / (2*3.1415*B34*B35)</f>
+        <v>270</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="17">
+        <v>4.3</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="17">
+        <f xml:space="preserve"> B25</f>
+        <v>270</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B41" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="34">
+        <f xml:space="preserve"> B39 * (B37 / (B40*B40 + B37*B37)^0.5)</f>
+        <v>3.0405591591021541</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="45" spans="1:5" ht="12.75">
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="17">
+        <v>270</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A50" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="34">
+        <f xml:space="preserve"> 1 / (2*3.1415*B49*B50)</f>
+        <v>5894.8013746676806</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="34">
+        <f xml:space="preserve"> 1 / (B48*2*3.1415*B50)</f>
+        <v>795.79818558013699</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="34">
+        <f xml:space="preserve"> 1 / (B48*2*3.1415*B49)</f>
+        <v>2.9474006873338403E-7</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="34"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="17">
+        <v>270</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="34">
+        <f xml:space="preserve"> 1 / (2*3.1415*B59*B60)</f>
+        <v>5894.8013746676806</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="34">
+        <f xml:space="preserve"> 1 / (B58*2*3.1415*B60)</f>
+        <v>159.1596371160274</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="13"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="34">
+        <f xml:space="preserve"> 1 / (B58*2*3.1415*B59)</f>
+        <v>5.8948013746676808E-8</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="F65" s="13"/>
+    </row>
+    <row r="67" spans="1:6" ht="25.5">
+      <c r="A67" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A68" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A69" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="17">
+        <v>270</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A70" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A72" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="34">
+        <f xml:space="preserve"> 1 / (2*3.1415*B69*B70)</f>
+        <v>5894.8013746676806</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="34"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A73" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="34">
+        <f xml:space="preserve"> 1 / (B68*2*3.1415*B70)</f>
+        <v>159.1596371160274</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="34"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A74" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="34">
+        <f xml:space="preserve"> 1 / (B68*2*3.1415*B69)</f>
+        <v>5.8948013746676808E-8</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="34"/>
+    </row>
+    <row r="76" spans="1:6" s="16" customFormat="1" ht="12.75"/>
+    <row r="77" spans="1:6" ht="25.5">
+      <c r="A77" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A78" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A79" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="17">
+        <v>270</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A80" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A82" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="34">
+        <f xml:space="preserve"> 1 / (2*3.1415*B79*B80)</f>
+        <v>5894.8013746676806</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="34"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A83" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="34">
+        <f xml:space="preserve"> 1 / (B78*2*3.1415*B80)</f>
+        <v>795.79818558013699</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="34"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A84" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="34">
+        <f xml:space="preserve"> 1 / (B78*2*3.1415*B79)</f>
+        <v>2.9474006873338403E-7</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="34"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A87" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A88" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A89" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="17">
+        <f xml:space="preserve"> B54</f>
+        <v>2.9474006873338403E-7</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A91" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="39">
+        <f xml:space="preserve"> 1 / (2*3.1415*B88*B89)</f>
+        <v>270</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="34"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A93" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="17">
+        <f xml:space="preserve"> B42</f>
+        <v>3.0405591591021541</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A94" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="17">
+        <v>270</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="15"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A96" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="34">
+        <f xml:space="preserve"> B93 * (B91 / (B94*B94 + B91*B91)^0.5)</f>
+        <v>2.1499999999999995</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="34"/>
+      <c r="E96" s="9"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A99" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A100" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A101" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="17">
+        <f xml:space="preserve"> B64</f>
+        <v>5.8948013746676808E-8</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A102" s="9"/>
+      <c r="B102" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A103" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="39">
+        <f xml:space="preserve"> 1 / (2*3.1415*B100*B101)</f>
+        <v>270</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="34"/>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A105" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="17">
+        <f xml:space="preserve"> B42</f>
+        <v>3.0405591591021541</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A106" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="17">
+        <v>270</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A108" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="34">
+        <f xml:space="preserve"> B105 * (B106 / (B106*B106 + B103*B103)^0.5)</f>
+        <v>2.1499999999999995</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="34"/>
+    </row>
+    <row r="111" spans="1:6" ht="25.5">
+      <c r="A111" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A112" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="17"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A113" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="17">
+        <f xml:space="preserve"> B74</f>
+        <v>5.8948013746676808E-8</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A114" s="9"/>
+      <c r="B114" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A115" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" s="39">
+        <f xml:space="preserve"> 1 / (2*3.1415*B112*B113)</f>
+        <v>270</v>
+      </c>
+      <c r="C115" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="34"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A117" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="17">
+        <f xml:space="preserve"> B42</f>
+        <v>3.0405591591021541</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A118" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" s="17">
+        <v>270</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A120" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" s="34">
+        <f xml:space="preserve"> B117 * (B115 / (B118*B118 + B115*B115)^0.5)</f>
+        <v>2.1499999999999995</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="34"/>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="1:6" ht="25.5">
+      <c r="A123" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A124" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A125" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="17">
+        <f xml:space="preserve"> B84</f>
+        <v>2.9474006873338403E-7</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="17"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A126" s="9"/>
+      <c r="B126" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A127" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="39">
+        <f xml:space="preserve"> 1 / (2*3.1415*B124*B125)</f>
+        <v>270</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="34"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A129" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" s="17">
+        <f xml:space="preserve"> B42</f>
+        <v>3.0405591591021541</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="17"/>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A130" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="17">
+        <v>270</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="17"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A131" s="9"/>
+      <c r="B131" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="1:4" ht="15">
+      <c r="A132" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B132" s="34">
+        <f xml:space="preserve"> B129 * (B130 / (B130*B130 + B127*B127)^0.5)</f>
+        <v>2.1499999999999995</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="34"/>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A139" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="10"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A140" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="17">
+        <v>2.15</v>
+      </c>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A141" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="17">
+        <v>2.15</v>
+      </c>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A142" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="17">
+        <v>2.15</v>
+      </c>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A143" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="17">
+        <v>0</v>
+      </c>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A144" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B144" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A145" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B146" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A147" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="34">
+        <f xml:space="preserve"> B144/B145 * (B140 + B141 + B142 + B143)</f>
+        <v>6.4499999999999993</v>
+      </c>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A150" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A151" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="17">
+        <v>36000</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="17"/>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A152" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" s="17">
+        <v>360000</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" s="17"/>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A153" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="17">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A154" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="17">
+        <v>299792458</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" s="17"/>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B155" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="10"/>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D156" s="33"/>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A157" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A158" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" s="34">
+        <f>(B154*B153) / B152</f>
+        <v>791.95174321666661</v>
+      </c>
+      <c r="C158" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158" s="34"/>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A177" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A185" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A186" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B186" s="9">
+        <v>5</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" s="9"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A187" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B187" s="9">
+        <v>2</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" s="9"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A188" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B188" s="9">
+        <v>2</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A189" s="9"/>
+      <c r="B189" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A190" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B190" s="9">
+        <f>B186*(B188/(B188+B187))</f>
+        <v>2.5</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A191" s="9"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A193" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A194" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B194" s="9">
+        <v>12</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" s="9"/>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A195" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B195" s="9">
+        <v>6</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="9"/>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A196" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B196" s="9">
+        <v>5</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D196" s="9"/>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A197" s="9"/>
+      <c r="B197" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A198" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" s="9">
+        <f>B196*(B194/B195-1)</f>
+        <v>5</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A206" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A207" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207">
+        <v>20000</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A208" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B208">
+        <v>270</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A209" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209" s="10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B210" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A211" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B211">
+        <f xml:space="preserve"> 1 / (2*3.1415*B208*B209)</f>
+        <v>5894.8013746676806</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A212" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B212" s="10">
+        <f xml:space="preserve"> 1 / (B207*2*3.1415*B209)</f>
+        <v>79.579818558013699</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A213" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213">
+        <f xml:space="preserve"> 1 / (B207*2*3.1415*B208)</f>
+        <v>2.9474006873338404E-8</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A228" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C228" s="17"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B229" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A230" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B230">
+        <f>(B40*B40+B37*B37)^0.5</f>
+        <v>381.83766184073568</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A233" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
+      <c r="E233" s="17"/>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A234" s="13"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A235" s="13"/>
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A236" s="13"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A237" s="13"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A238" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A239" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B239">
+        <v>5</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A240" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B240">
+        <v>1E-3</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A241" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B241" s="13">
+        <v>5</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A242" s="13"/>
+      <c r="B242" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A243" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B243" s="13">
+        <f xml:space="preserve"> B240*B241</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A244" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B244" s="13">
+        <f xml:space="preserve"> B239/B241</f>
+        <v>1</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A245" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B245" s="13">
+        <f xml:space="preserve"> B239/B240</f>
+        <v>5000</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A247" s="13"/>
+      <c r="B247" s="13"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="13"/>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A248" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
+      <c r="E248" s="19"/>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A249" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B249" s="13">
+        <v>5</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A250" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B250" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A251" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B251" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A252" s="13"/>
+      <c r="B252" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+    </row>
+    <row r="253" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A253" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B253" s="13">
+        <f xml:space="preserve"> B249*B250</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C253" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B254" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A255" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B255" s="13">
+        <f xml:space="preserve"> B250*B250 *B251</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C255" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A256" s="13"/>
+      <c r="B256" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A257" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B257" s="13">
+        <f xml:space="preserve"> B249*B249 / B251</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C257" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A259" s="16"/>
+      <c r="B259" s="15"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="15"/>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A260" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B260" s="17"/>
+      <c r="C260" s="17"/>
+      <c r="D260" s="17"/>
+      <c r="E260" s="17"/>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A261" t="s">
+        <v>129</v>
+      </c>
+      <c r="B261">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A262" t="s">
+        <v>130</v>
+      </c>
+      <c r="B262">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B263" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A264" t="s">
+        <v>62</v>
+      </c>
+      <c r="B264">
+        <f xml:space="preserve"> B262 / B261</f>
+        <v>7.3529411764705879</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A267" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B267" s="17"/>
+      <c r="C267" s="17"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A268" t="s">
+        <v>35</v>
+      </c>
+      <c r="B268">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A269" t="s">
+        <v>37</v>
+      </c>
+      <c r="B269">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A270" t="s">
+        <v>46</v>
+      </c>
+      <c r="B270">
+        <v>9.9999999999999994E-12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B271" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A273" t="s">
+        <v>140</v>
+      </c>
+      <c r="B273">
+        <f xml:space="preserve"> 0.693*(B268 + B269)* B270</f>
+        <v>1.39293E-6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A274" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="B274">
+        <f xml:space="preserve"> 0.693*(B269)* B270</f>
+        <v>1.3859999999999999E-6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B275" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="11" t="s">
+    </row>
+    <row r="276" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A276" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="10">
-        <v>5</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="10">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="10">
-        <f>B16*(B18/(B18+B17))</f>
-        <v>2.5</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="10">
-        <v>12</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="10">
-        <v>6</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="10">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="10">
-        <f>B26*(B24/B25-1)</f>
-        <v>5</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="11" t="s">
+      <c r="B276">
+        <f xml:space="preserve"> B273 + B274</f>
+        <v>2.7789300000000002E-6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B277" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A278" t="s">
         <v>44</v>
       </c>
-      <c r="B32">
-        <v>20000</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33">
-        <v>270</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="11">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36">
-        <f xml:space="preserve"> 1 / (2*3.1415*B33*B34)</f>
-        <v>5894.8013746676806</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="11">
-        <f xml:space="preserve"> 1 / (B32*2*3.1415*B34)</f>
-        <v>79.579818558013699</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38">
-        <f xml:space="preserve"> 1 / (B32*2*3.1415*B33)</f>
-        <v>2.9474006873338404E-8</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
-        <v>20000</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>2.9000000000000002E-8</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B44" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="12.75">
-      <c r="A45" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="14">
-        <f xml:space="preserve"> 1 / (2*3.1415*B42*B43)</f>
-        <v>274.41316744142648</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47">
-        <v>4.3</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>270</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B49" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A50" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50">
-        <f xml:space="preserve"> B47 * (B45 / (B48*B48 + B45*B45)^0.5)</f>
-        <v>3.0651060882364614</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B54" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <f>(B48*B48+B45*B45)^0.5</f>
-        <v>384.970890412816</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A65" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65">
-        <v>1E-3</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A66" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="14">
-        <v>5</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A68" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="14">
-        <f xml:space="preserve"> B65*B66</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="14">
-        <f xml:space="preserve"> B64/B66</f>
-        <v>1</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A70" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="14">
-        <f xml:space="preserve"> B64/B65</f>
-        <v>5000</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A73" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A74" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="14">
-        <v>5</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A75" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:6" s="17" customFormat="1" ht="12.75">
-      <c r="A76" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" s="15">
-        <v>5000</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A78" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="14">
-        <f xml:space="preserve"> B74*B75</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B79" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A80" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="14">
-        <f xml:space="preserve"> B75*B75 *B76</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A82" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="14">
-        <f xml:space="preserve"> B74*B74 / B76</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A84" s="17"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A85" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A86" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A87" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B88" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89">
-        <f xml:space="preserve"> B87 / B86</f>
-        <v>7.3529411764705879</v>
+      <c r="B278">
+        <f xml:space="preserve"> 1 / B276</f>
+        <v>359850.73391557182</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1"/>
-    <hyperlink ref="B53" r:id="rId2"/>
+    <hyperlink ref="B33" r:id="rId1"/>
+    <hyperlink ref="B228" r:id="rId2"/>
+    <hyperlink ref="B87" r:id="rId3"/>
+    <hyperlink ref="B99" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/2 Architecture/Product Architecture.xlsx
+++ b/2 Architecture/Product Architecture.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="201">
   <si>
     <t>Project</t>
   </si>
@@ -98,9 +98,6 @@
     <t>http://www.rfcafe.com/references/electrical/filter-denorm.htm</t>
   </si>
   <si>
-    <t>RC filter impedence</t>
-  </si>
-  <si>
     <t>http://www.electronics-tutorials.ws/filter/filter_2.html</t>
   </si>
   <si>
@@ -147,20 +144,6 @@
   </si>
   <si>
     <t>Voltage Divider Design</t>
-  </si>
-  <si>
-    <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
   </si>
   <si>
     <t>kΩ</t>
@@ -213,9 +196,6 @@
     </r>
   </si>
   <si>
-    <t>LPF Voltage Output</t>
-  </si>
-  <si>
     <t>Xc = 1 / ((2πfC)</t>
   </si>
   <si>
@@ -225,18 +205,9 @@
     <t>Vout = Vin * (Xc / (R^2 + Xc^2)^.5)</t>
   </si>
   <si>
-    <t>Z = (R^2 + Xc^2)^.5</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>TODO Possibly</t>
   </si>
   <si>
-    <t>RC Filter Component Design</t>
-  </si>
-  <si>
     <t>Ohm's Law</t>
   </si>
   <si>
@@ -507,9 +478,6 @@
     <t>HPF Filter Component Design</t>
   </si>
   <si>
-    <t>HPF Voltage Output</t>
-  </si>
-  <si>
     <t>Vout = Vin * (R / (R^2 + Xc^2)^.5)</t>
   </si>
   <si>
@@ -543,9 +511,6 @@
     <t>f_harmonic (max)</t>
   </si>
   <si>
-    <t>Copper permuability constant</t>
-  </si>
-  <si>
     <t>Speed of light</t>
   </si>
   <si>
@@ -597,23 +562,104 @@
     <t>4. Signal into Summing Amp</t>
   </si>
   <si>
-    <t>V4 worst case when off it could be .4V, should be irrevelant</t>
-  </si>
-  <si>
-    <t>Random Notes</t>
-  </si>
-  <si>
-    <t>5. The length calculation</t>
-  </si>
-  <si>
-    <t>You need to explain this stuff to me better lol</t>
+    <t>LPF Voltage Output(V_High_Worst)</t>
+  </si>
+  <si>
+    <t>LPF Voltage Output(V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>LPF Voltage Output (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>HPF Voltage Output (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>LPF Voltage Output (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>HPF Voltage Output (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>Inputs =</t>
+  </si>
+  <si>
+    <t>Outputs =</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (LPF) Component Design (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (LPF) Component Design (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (HPF) Component Design (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (HPF) Component Design (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>5. Length calculation</t>
+  </si>
+  <si>
+    <t>Copper Velocity factor</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Random Calculations</t>
+  </si>
+  <si>
+    <t>Rf = 5k pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Signal into Summing Amp </t>
+  </si>
+  <si>
+    <t>Single Signal (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>Single Signal (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>EQ (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>EQ (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>Meters</t>
+  </si>
+  <si>
+    <t>Safe length</t>
+  </si>
+  <si>
+    <t>make summing amp 510ohm</t>
+  </si>
+  <si>
+    <t>make sum into wire then to summer</t>
+  </si>
+  <si>
+    <t>add series resistance to even pot changes</t>
+  </si>
+  <si>
+    <t>calculatte pot value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -654,11 +700,6 @@
       <sz val="14"/>
       <color rgb="FF2C3E50"/>
       <name val="MathJax_Math-italic"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -772,10 +813,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -800,7 +841,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -809,17 +849,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="19" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="19" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="19" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="19"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="19"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,16 +881,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="20" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="20" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="20"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="20"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="19" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -889,326 +938,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="ac impedance equation"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7162800" y="9305925"/>
-          <a:ext cx="1571625" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="capacitive reactance equation"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11325225" y="6505575"/>
-          <a:ext cx="2409825" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="http://sim.okawa-denshi.jp/images/CRLowD.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11477625" y="7419975"/>
-          <a:ext cx="1152525" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2409825" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="capacitive reactance equation"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11210925" y="18183225"/>
-          <a:ext cx="2409825" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1152525" cy="762000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="http://sim.okawa-denshi.jp/images/CRLowD.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11315700" y="19040475"/>
-          <a:ext cx="1152525" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2409825" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="capacitive reactance equation"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11210925" y="20478750"/>
-          <a:ext cx="2409825" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1553,38 +1282,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>87</v>
+      <c r="B2" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>42882</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>88</v>
+      <c r="B4" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1614,297 +1343,297 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>91</v>
+      <c r="A7" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>101</v>
+      <c r="A8" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>102</v>
+      <c r="A9" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>103</v>
+      <c r="A10" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>104</v>
+      <c r="A11" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>120</v>
+      <c r="A12" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>121</v>
+      <c r="A13" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>122</v>
+      <c r="A14" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>123</v>
+      <c r="A15" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="25" t="s">
-        <v>124</v>
+      <c r="A16" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>125</v>
+      <c r="A17" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>117</v>
+      <c r="A18" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="25" t="s">
-        <v>118</v>
+      <c r="A19" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>119</v>
+      <c r="A20" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>77</v>
+      <c r="C21" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
@@ -1912,28 +1641,28 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -2012,58 +1741,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>87</v>
+      <c r="B2" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>42882</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>88</v>
+      <c r="B4" s="27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="24"/>
+      <c r="A6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>72</v>
+      <c r="C7" s="21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>89</v>
+      <c r="A8" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -2071,15 +1800,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>100</v>
+      <c r="A11" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -2087,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
@@ -2098,10 +1827,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -2109,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -2120,10 +1849,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
@@ -2131,10 +1860,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2142,10 +1871,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -2153,10 +1882,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -2164,10 +1893,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
@@ -2175,10 +1904,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
@@ -2186,10 +1915,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2197,12 +1926,12 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="21"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="25" t="s">
-        <v>105</v>
+      <c r="A24" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -2211,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J25" s="10"/>
     </row>
@@ -2223,10 +1952,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J26" s="10"/>
     </row>
@@ -2235,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -2246,10 +1975,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
@@ -2257,10 +1986,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -2268,10 +1997,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -2279,83 +2008,83 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32">
         <v>8</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="6:8" ht="15.75" customHeight="1">
       <c r="G44" s="10"/>
@@ -2401,41 +2130,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>87</v>
+      <c r="B2" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>42882</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>88</v>
+      <c r="B4" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2476,8 +2205,8 @@
         <f t="shared" ref="D7:D8" si="0">B7*C7</f>
         <v>0.15</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2495,32 +2224,32 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
-        <v>29</v>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="B9" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <v>0.5</v>
@@ -2531,14 +2260,14 @@
       <c r="D10" s="8">
         <v>0.01</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
-        <v>86</v>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -2549,16 +2278,16 @@
       <c r="D11" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
-        <v>86</v>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="26">
+        <v>75</v>
+      </c>
+      <c r="B12" s="22">
         <v>0.5</v>
       </c>
       <c r="C12" s="8">
@@ -2567,14 +2296,14 @@
       <c r="D12" s="8">
         <v>0.05</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27" t="s">
-        <v>84</v>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2585,9 +2314,9 @@
       <c r="D13" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27" t="s">
-        <v>84</v>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -2609,7 +2338,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B17" s="27"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
@@ -7541,10 +7270,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:L289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="G45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7552,2027 +7281,2651 @@
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="40.42578125" customWidth="1"/>
+    <col min="8" max="8" width="52.140625" customWidth="1"/>
+    <col min="9" max="10" width="38.5703125" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="30" t="s">
+      <c r="E1" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="B2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>42882</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="E3" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25.5">
-      <c r="A8" s="33" t="s">
-        <v>145</v>
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75">
+      <c r="A7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5">
+      <c r="A8" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>169</v>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="I22" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="I23" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="I24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="16">
+        <v>100</v>
+      </c>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="16">
+        <v>330</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="I25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="17">
-        <v>20000</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B26" s="41">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="17">
-        <v>270</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="17">
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="I26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="16">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A28" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="30">
+        <f xml:space="preserve"> 1 / (2*3.1415*B25*B26)</f>
+        <v>21922.815029755835</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A29" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="30">
+        <f xml:space="preserve"> 1 / (B24*2*3.1415*B26)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="I29" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" s="30">
+        <f xml:space="preserve"> 0.693*(J24 + J25)* J26</f>
+        <v>7.6229999999999994E-5</v>
+      </c>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A30" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="30">
+        <f xml:space="preserve"> 1 / (B24*2*3.1415*B25)</f>
+        <v>2.411509653273142E-7</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="I30" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="30">
+        <f xml:space="preserve"> 0.693*(J25)* J26</f>
+        <v>6.929999999999999E-5</v>
+      </c>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D31" s="12"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="I32" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="30">
+        <f xml:space="preserve"> J29 + J30</f>
+        <v>1.4553E-4</v>
+      </c>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A33" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="30">
+        <f xml:space="preserve"> 1 / J32</f>
+        <v>6871.4354428640145</v>
+      </c>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="41">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="42">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A37" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="B37" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B34*B35)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F34*F35)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D38" s="12"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="I38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="16">
+        <v>5</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="16">
+        <v>2</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="16">
+        <f xml:space="preserve"> B25</f>
+        <v>330</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="16">
+        <v>330</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="16">
+        <v>2</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A42" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="30">
+        <f xml:space="preserve"> B39 * (B37 / SQRT((B40*B40 + B37*B37)))</f>
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="30">
+        <f xml:space="preserve"> F39 * (F37 / (F40*F40 + F37*F37)^0.5)</f>
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="30">
+        <f>J38*(J40/(J40+J39))</f>
+        <v>2.5</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D43" s="12"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D44" s="12"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" ht="12.75">
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="I45" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A46" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="9"/>
+      <c r="I46" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="16">
+        <v>12</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A47" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="9"/>
+      <c r="I47" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="16">
+        <v>6</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="9"/>
+      <c r="I48" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="16">
+        <v>5</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A49" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="16">
+        <v>3900</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" ht="15">
+      <c r="A50" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="34">
-        <f xml:space="preserve"> 1 / (2*3.1415*B25*B26)</f>
-        <v>5894.8013746676806</v>
-      </c>
-      <c r="C28" s="34" t="s">
+      <c r="B50" s="41">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="34">
-        <f xml:space="preserve"> 1 / (B24*2*3.1415*B26)</f>
-        <v>79.579818558013699</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="34">
-        <f xml:space="preserve"> 1 / (B24*2*3.1415*B25)</f>
-        <v>2.9474006873338404E-8</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="34"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="17">
-        <v>20000</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="17">
-        <f xml:space="preserve"> B30</f>
-        <v>2.9474006873338404E-8</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B36" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="39">
-        <f xml:space="preserve"> 1 / (2*3.1415*B34*B35)</f>
-        <v>270</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="17">
-        <v>4.3</v>
-      </c>
-      <c r="C39" s="17" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="9"/>
+      <c r="I50" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="17">
-        <f xml:space="preserve"> B25</f>
-        <v>270</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B41" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="34">
-        <f xml:space="preserve"> B39 * (B37 / (B40*B40 + B37*B37)^0.5)</f>
-        <v>3.0405591591021541</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="45" spans="1:5" ht="12.75">
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="17">
-        <v>2000</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="17">
-        <v>270</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="17">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="J50" s="30">
+        <f>J48*(J46/J47-1)</f>
+        <v>5</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="34" t="s">
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A52" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="30">
+        <f xml:space="preserve"> 1 / (2*3.1415*B49*B50)</f>
+        <v>1855.0074255947247</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="9"/>
+      <c r="I52" s="10"/>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A53" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="30">
+        <f xml:space="preserve"> 1 / (B48*2*3.1415*B50)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="I53" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="34">
-        <f xml:space="preserve"> 1 / (2*3.1415*B49*B50)</f>
-        <v>5894.8013746676806</v>
-      </c>
-      <c r="C52" s="34" t="s">
+      <c r="B54" s="30">
+        <f xml:space="preserve"> 1 / (B48*2*3.1415*B49)</f>
+        <v>2.0405081681541972E-8</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="34" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="43"/>
+      <c r="I54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="16">
+        <v>5</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D55" s="12"/>
+      <c r="I55" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D56" s="12"/>
+      <c r="E56" s="9"/>
+      <c r="I56" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" s="18">
+        <v>5</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A57" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A58" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="34">
-        <f xml:space="preserve"> 1 / (B48*2*3.1415*B50)</f>
-        <v>795.79818558013699</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="34"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="34" t="s">
+      <c r="D58" s="12"/>
+      <c r="E58" s="9"/>
+      <c r="I58" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="35">
+        <f xml:space="preserve"> J55*J56</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A59" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="34">
-        <f xml:space="preserve"> 1 / (B48*2*3.1415*B49)</f>
-        <v>2.9474006873338403E-7</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="34"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="17" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="9"/>
+      <c r="I59" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" s="35">
+        <f xml:space="preserve"> J54/J56</f>
+        <v>1</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A60" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="17">
-        <v>10000</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="B60" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="17">
-        <v>270</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="17" t="s">
+      <c r="D60" s="12"/>
+      <c r="E60" s="9"/>
+      <c r="I60" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60" s="35">
+        <f xml:space="preserve"> J54/J55</f>
+        <v>5000</v>
+      </c>
+      <c r="K60" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="17">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="34" t="s">
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A62" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="30">
+        <f xml:space="preserve"> 1 / (2*3.1415*B59*B60)</f>
+        <v>7234.5289598194258</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A63" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="30">
+        <f xml:space="preserve"> 1 / (B58*2*3.1415*B60)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="12"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A64" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="34">
-        <f xml:space="preserve"> 1 / (2*3.1415*B59*B60)</f>
-        <v>5894.8013746676806</v>
-      </c>
-      <c r="C62" s="34" t="s">
+      <c r="B64" s="30">
+        <f xml:space="preserve"> 1 / (B58*2*3.1415*B59)</f>
+        <v>7.9579818558013689E-8</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="34" t="s">
+      <c r="D64" s="12"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="12"/>
+      <c r="I64" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="18">
+        <v>5</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="I65" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J65" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D66" s="12"/>
+      <c r="I66" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="18">
+        <v>330</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" spans="1:12" ht="25.5">
+      <c r="A67" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A68" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="34">
-        <f xml:space="preserve"> 1 / (B58*2*3.1415*B60)</f>
-        <v>159.1596371160274</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="13"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="34" t="s">
+      <c r="D68" s="12"/>
+      <c r="I68" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" s="35">
+        <f xml:space="preserve"> J64*J65</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A69" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="34">
-        <f xml:space="preserve"> 1 / (B58*2*3.1415*B59)</f>
-        <v>5.8948013746676808E-8</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
-      <c r="F65" s="13"/>
-    </row>
-    <row r="67" spans="1:6" ht="25.5">
-      <c r="A67" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A68" s="17" t="s">
+      <c r="D69" s="12"/>
+      <c r="J69" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A70" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="17">
-        <v>10000</v>
-      </c>
-      <c r="C68" s="17" t="s">
+      <c r="B70" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C70" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="17" t="s">
+      <c r="D70" s="12"/>
+      <c r="I70" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J70" s="35">
+        <f xml:space="preserve"> J65*J65 *J66</f>
+        <v>3.3E-4</v>
+      </c>
+      <c r="K70" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A72" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="30">
+        <f xml:space="preserve"> 1 / (2*3.1415*B69*B70)</f>
+        <v>7234.5289598194258</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="17">
-        <v>270</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A70" s="17" t="s">
+      <c r="D72" s="12"/>
+      <c r="I72" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" s="35">
+        <f xml:space="preserve"> J64*J64 / J66</f>
+        <v>7.575757575757576E-2</v>
+      </c>
+      <c r="K72" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A73" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="30">
+        <f xml:space="preserve"> 1 / (B68*2*3.1415*B70)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="17">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="34" t="s">
+      <c r="D73" s="12"/>
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A74" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="34">
-        <f xml:space="preserve"> 1 / (2*3.1415*B69*B70)</f>
-        <v>5894.8013746676806</v>
-      </c>
-      <c r="C72" s="34" t="s">
+      <c r="B74" s="30">
+        <f xml:space="preserve"> 1 / (B68*2*3.1415*B69)</f>
+        <v>7.9579818558013689E-8</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="34"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A73" s="34" t="s">
+      <c r="D74" s="12"/>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D75" s="12"/>
+      <c r="I75" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" s="15" customFormat="1" ht="15">
+      <c r="D76" s="12"/>
+      <c r="I76" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J76" s="16">
+        <v>680</v>
+      </c>
+      <c r="K76" s="16"/>
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" ht="26.25">
+      <c r="A77" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="12"/>
+      <c r="I77" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J77" s="16">
+        <v>5000</v>
+      </c>
+      <c r="K77" s="16"/>
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A78" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="34">
-        <f xml:space="preserve"> 1 / (B68*2*3.1415*B70)</f>
-        <v>159.1596371160274</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="34"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A74" s="34" t="s">
+      <c r="D78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="J78" t="s">
+        <v>125</v>
+      </c>
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A79" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="16">
+        <v>3900</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="34">
-        <f xml:space="preserve"> 1 / (B68*2*3.1415*B69)</f>
-        <v>5.8948013746676808E-8</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="34"/>
-    </row>
-    <row r="76" spans="1:6" s="16" customFormat="1" ht="12.75"/>
-    <row r="77" spans="1:6" ht="25.5">
-      <c r="A77" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A78" s="17" t="s">
+      <c r="D79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="I79" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J79" s="30">
+        <f xml:space="preserve"> J77 / J76</f>
+        <v>7.3529411764705879</v>
+      </c>
+      <c r="K79" s="30"/>
+      <c r="L79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A80" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="17">
-        <v>2000</v>
-      </c>
-      <c r="C78" s="17" t="s">
+      <c r="B80" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A79" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="17">
-        <v>270</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="F79" s="13"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A80" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="17">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="17"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="9"/>
       <c r="B81" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A82" s="34" t="s">
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A82" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="30">
+        <f xml:space="preserve"> 1 / (2*3.1415*B79*B80)</f>
+        <v>1855.0074255947247</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A83" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="30">
+        <f xml:space="preserve"> 1 / (B78*2*3.1415*B80)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A84" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="34">
-        <f xml:space="preserve"> 1 / (2*3.1415*B79*B80)</f>
-        <v>5894.8013746676806</v>
-      </c>
-      <c r="C82" s="34" t="s">
+      <c r="B84" s="30">
+        <f xml:space="preserve"> 1 / (B78*2*3.1415*B79)</f>
+        <v>2.0405081681541972E-8</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="34"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A83" s="34" t="s">
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A87" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A88" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B83" s="34">
-        <f xml:space="preserve"> 1 / (B78*2*3.1415*B80)</f>
-        <v>795.79818558013699</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="34"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A84" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="34">
-        <f xml:space="preserve"> 1 / (B78*2*3.1415*B79)</f>
-        <v>2.9474006873338403E-7</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="34"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A87" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A88" s="17" t="s">
+      <c r="D88" s="12"/>
+      <c r="E88" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A89" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="17">
-        <v>2000</v>
-      </c>
-      <c r="C88" s="17" t="s">
+      <c r="B89" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C89" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A89" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="17">
-        <f xml:space="preserve"> B54</f>
-        <v>2.9474006873338403E-7</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="9"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D89" s="12"/>
+      <c r="E89" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="9"/>
       <c r="B90" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="D90" s="12"/>
       <c r="E90" s="9"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A91" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91" s="39">
+      <c r="F90" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A91" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" s="35">
         <f xml:space="preserve"> 1 / (2*3.1415*B88*B89)</f>
-        <v>270</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D91" s="34"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="13"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1">
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F88*F89)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G91" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="D92" s="12"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="13"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A93" s="17" t="s">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A93" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="16">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="17">
-        <f xml:space="preserve"> B42</f>
-        <v>3.0405591591021541</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="13"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A94" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" s="17">
-        <v>270</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="13"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D93" s="12"/>
+      <c r="E93" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="16">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A94" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="16">
+        <v>3900</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="16">
+        <v>3900</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="D95" s="12"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="15"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A96" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="34">
+      <c r="F95" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A96" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="30">
         <f xml:space="preserve"> B93 * (B91 / (B94*B94 + B91*B91)^0.5)</f>
-        <v>2.1499999999999995</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1">
-      <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A99" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="9"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A100" s="17" t="s">
+        <v>2.9120386657026849</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="30">
+        <f xml:space="preserve"> F93 * (F91 / (F94*F94 + F91*F91)^0.5)</f>
+        <v>0.40633097660967693</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A99" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A100" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A101" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="17">
-        <v>10000</v>
-      </c>
-      <c r="C100" s="17" t="s">
+      <c r="B101" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C101" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="9"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A101" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" s="17">
-        <f xml:space="preserve"> B64</f>
-        <v>5.8948013746676808E-8</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="9"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D101" s="12"/>
+      <c r="E101" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
       <c r="A102" s="9"/>
       <c r="B102" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
+      <c r="D102" s="12"/>
       <c r="E102" s="9"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A103" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B103" s="39">
+      <c r="F102" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A103" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="35">
         <f xml:space="preserve"> 1 / (2*3.1415*B100*B101)</f>
-        <v>270</v>
-      </c>
-      <c r="C103" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" s="34"/>
-      <c r="E103" s="9"/>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1">
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F103" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F100*F101)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G103" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
+      <c r="D104" s="12"/>
       <c r="E104" s="9"/>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A105" s="17" t="s">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A105" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="16">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="17">
-        <f xml:space="preserve"> B42</f>
-        <v>3.0405591591021541</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D105" s="17"/>
-      <c r="E105" s="9"/>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A106" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B106" s="17">
-        <v>270</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="17"/>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D105" s="12"/>
+      <c r="E105" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="16">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A106" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
+      <c r="D107" s="12"/>
       <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A108" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B108" s="34">
+      <c r="F107" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A108" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" s="30">
         <f xml:space="preserve"> B105 * (B106 / (B106*B106 + B103*B103)^0.5)</f>
-        <v>2.1499999999999995</v>
-      </c>
-      <c r="C108" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D108" s="34"/>
-    </row>
-    <row r="111" spans="1:6" ht="25.5">
-      <c r="A111" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A112" s="17" t="s">
+        <v>1.1410281948712884</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="30">
+        <f xml:space="preserve"> F105 * (F106 / (F106*F106 + F103*F103)^0.5)</f>
+        <v>0.15921323649366811</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D109" s="12"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="1:7" ht="25.5">
+      <c r="A111" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A112" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A113" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="17">
-        <v>10000</v>
-      </c>
-      <c r="C112" s="17" t="s">
+      <c r="B113" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C113" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D112" s="17"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="13"/>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A113" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B113" s="17">
-        <f xml:space="preserve"> B74</f>
-        <v>5.8948013746676808E-8</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="10"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D113" s="12"/>
+      <c r="E113" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
+      <c r="D114" s="12"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="10"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A115" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B115" s="39">
+      <c r="F114" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A115" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="35">
         <f xml:space="preserve"> 1 / (2*3.1415*B112*B113)</f>
-        <v>270</v>
-      </c>
-      <c r="C115" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" s="34"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="10"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1">
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D115" s="12"/>
+      <c r="E115" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F112*F113)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
+      <c r="D116" s="12"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A117" s="17" t="s">
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A117" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="16">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C117" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="17">
-        <f xml:space="preserve"> B42</f>
-        <v>3.0405591591021541</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="10"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A118" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B118" s="17">
-        <v>270</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="10"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D117" s="12"/>
+      <c r="E117" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" s="16">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A118" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
+      <c r="D119" s="12"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A120" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B120" s="34">
+      <c r="F119" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A120" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" s="30">
         <f xml:space="preserve"> B117 * (B115 / (B118*B118 + B115*B115)^0.5)</f>
-        <v>2.1499999999999995</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D120" s="34"/>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D121" s="9"/>
+        <v>4.1274007598834093</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="30">
+        <f xml:space="preserve"> F117 * (F115 / (F118*F118 + F115*F115)^0.5)</f>
+        <v>0.57591638510001053</v>
+      </c>
+      <c r="G120" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D121" s="12"/>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D122" s="12"/>
       <c r="E122" s="9"/>
     </row>
-    <row r="123" spans="1:6" ht="25.5">
-      <c r="A123" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A124" s="17" t="s">
+    <row r="123" spans="1:7" ht="25.5">
+      <c r="A123" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D123" s="12"/>
+      <c r="E123" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A124" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="12"/>
+      <c r="E124" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A125" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B124" s="17">
-        <v>2000</v>
-      </c>
-      <c r="C124" s="17" t="s">
+      <c r="B125" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C125" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="17"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A125" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="17">
-        <f xml:space="preserve"> B84</f>
-        <v>2.9474006873338403E-7</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="17"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D125" s="12"/>
+      <c r="E125" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" s="16">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1">
       <c r="A126" s="9"/>
       <c r="B126" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A127" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B127" s="39">
+      <c r="D126" s="12"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A127" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127" s="35">
         <f xml:space="preserve"> 1 / (2*3.1415*B124*B125)</f>
-        <v>270</v>
-      </c>
-      <c r="C127" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="34"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1">
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" s="12"/>
+      <c r="E127" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F124*F125)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G127" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A129" s="17" t="s">
+      <c r="D128" s="12"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A129" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="16">
+        <v>4.1274007598834093</v>
+      </c>
+      <c r="C129" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B129" s="17">
-        <f xml:space="preserve"> B42</f>
-        <v>3.0405591591021541</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D129" s="17"/>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A130" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B130" s="17">
-        <v>270</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="17"/>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D129" s="12"/>
+      <c r="E129" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="16">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A130" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" s="16">
+        <v>3900</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" s="12"/>
+      <c r="E130" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="16">
+        <v>3900</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1">
       <c r="A131" s="9"/>
       <c r="B131" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G131" s="9"/>
+    </row>
+    <row r="132" spans="1:7" ht="15">
+      <c r="A132" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" s="30">
+        <f xml:space="preserve"> B129 * (B130 / (B130*B130 + B127*B127)^0.5)</f>
+        <v>3.0261430207293838</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="12"/>
+      <c r="E132" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132" s="30">
+        <f xml:space="preserve"> F129 * (F130 / (F130*F130 + F127*F127)^0.5)</f>
+        <v>0.4380909434682238</v>
+      </c>
+      <c r="G132" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+    </row>
+    <row r="136" spans="1:7" ht="12.75">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A148" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A149" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A150" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" s="16">
+        <v>2.9120386657026849</v>
+      </c>
+      <c r="C150" s="16"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F150" s="16">
+        <v>0.40633097660967693</v>
+      </c>
+      <c r="G150" s="16"/>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A151" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="16">
+        <v>1.1410281948712884</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F151" s="16">
+        <v>0.15921323649366811</v>
+      </c>
+      <c r="G151" s="16"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A152" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B152" s="16">
+        <v>3.0261430207293838</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="16">
+        <v>0.4380909434682238</v>
+      </c>
+      <c r="G152" s="16"/>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A153" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153" s="16">
+        <v>0</v>
+      </c>
+      <c r="C153" s="16"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F153" s="16">
+        <v>0</v>
+      </c>
+      <c r="G153" s="16"/>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A154" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154" s="16">
+        <v>500</v>
+      </c>
+      <c r="C154" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D154" s="12"/>
+      <c r="E154" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F154" s="16">
+        <v>500</v>
+      </c>
+      <c r="G154" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A155" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B155" s="16">
+        <v>5600</v>
+      </c>
+      <c r="C155" s="16"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F155" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G155" s="16"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B156" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A157" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B157" s="30">
+        <f xml:space="preserve"> B154/B155 * (B150 + B151 + B152 + B153)</f>
+        <v>0.63207231083065685</v>
+      </c>
+      <c r="C157" s="30">
+        <f xml:space="preserve"> C154/B155 * (B150 + B151 + B152 + B153)</f>
+        <v>6.3207231083065691</v>
+      </c>
+      <c r="D157" s="12"/>
+      <c r="E157" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F157" s="30">
+        <f xml:space="preserve"> F154/F155 * (F150 + F151 + F152 + F153)</f>
+        <v>0.16727252609526147</v>
+      </c>
+      <c r="G157" s="30">
+        <f xml:space="preserve"> G154/F155 * (F150 + F151 + F152 + F153)</f>
+        <v>1.6727252609526149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A160" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G160" s="9"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A161" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="16">
+        <v>0</v>
+      </c>
+      <c r="C161" s="16"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F161" s="16">
+        <v>0</v>
+      </c>
+      <c r="G161" s="16"/>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A162" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" s="16">
+        <v>0</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F162" s="16">
+        <v>0</v>
+      </c>
+      <c r="G162" s="16"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A163" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="16">
+        <v>0</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F163" s="16">
+        <v>0</v>
+      </c>
+      <c r="G163" s="16"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A164" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164" s="16">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F164" s="16">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G164" s="16"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A165" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B165" s="16">
+        <v>500</v>
+      </c>
+      <c r="C165" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D165" s="12"/>
+      <c r="E165" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F165" s="16">
+        <v>500</v>
+      </c>
+      <c r="G165" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A166" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B166" s="16">
+        <v>3900</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F166" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G166" s="16"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A167" s="9"/>
+      <c r="B167" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G167" s="9"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A168" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" s="30">
+        <f xml:space="preserve"> B165/B166 * (B161 + B162 + B163 + B164)</f>
+        <v>0.54900217857536404</v>
+      </c>
+      <c r="C168" s="30">
+        <f xml:space="preserve"> C165/B166 * (B161 + B162 + B163 + B164)</f>
+        <v>5.4900217857536413</v>
+      </c>
+      <c r="D168" s="12"/>
+      <c r="E168" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F168" s="30">
+        <f xml:space="preserve"> F165/F166 * (F161 + F162 + F163 + F164)</f>
+        <v>9.958644169506603E-2</v>
+      </c>
+      <c r="G168" s="30">
+        <f xml:space="preserve"> G165/F166 * (F161 + F162 + F163 + F164)</f>
+        <v>0.9958644169506603</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="12.75">
+      <c r="A172" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172" s="10"/>
+      <c r="D172" s="12"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A173" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" s="16">
+        <v>36000</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" s="12"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A174" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B174" s="16">
+        <f xml:space="preserve"> 10*B173</f>
+        <v>360000</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" s="12"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A175" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" s="16">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C175" s="16"/>
+      <c r="D175" s="12"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A176" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B176" s="16">
+        <v>299792458</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D176" s="12"/>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A177" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" s="40">
+        <v>535</v>
+      </c>
+      <c r="C177" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D177" s="12"/>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B178" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-    </row>
-    <row r="132" spans="1:4" ht="15">
-      <c r="A132" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B132" s="34">
-        <f xml:space="preserve"> B129 * (B130 / (B130*B130 + B127*B127)^0.5)</f>
-        <v>2.1499999999999995</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D132" s="34"/>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A139" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C139" s="10"/>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A140" s="17" t="s">
+      <c r="C178" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B140" s="17">
-        <v>2.15</v>
-      </c>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A141" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" s="17">
-        <v>2.15</v>
-      </c>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A142" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" s="17">
-        <v>2.15</v>
-      </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A143" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" s="17">
-        <v>0</v>
-      </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A144" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B144" s="17">
-        <v>1000</v>
-      </c>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A145" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B145" s="17">
-        <v>1000</v>
-      </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B146" s="10" t="s">
+      <c r="D178" s="12"/>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D179" s="12"/>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A180" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B180" s="30">
+        <f>(B176*B175) / B177</f>
+        <v>360311.30933457945</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D180" s="12"/>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A181" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" s="30">
+        <f>(B176*B175) / B174</f>
+        <v>535.46264026111112</v>
+      </c>
+      <c r="C181" s="30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A147" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B147" s="34">
-        <f xml:space="preserve"> B144/B145 * (B140 + B141 + B142 + B143)</f>
-        <v>6.4499999999999993</v>
-      </c>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A150" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A151" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" s="17">
-        <v>36000</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D151" s="17"/>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A152" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B152" s="17">
-        <v>360000</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D152" s="17"/>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A153" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B153" s="17">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A154" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B154" s="17">
-        <v>299792458</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D154" s="17"/>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B155" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D155" s="10"/>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D156" s="33"/>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A157" t="s">
-        <v>44</v>
-      </c>
-      <c r="C157" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A158" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B158" s="34">
-        <f>(B154*B153) / B152</f>
-        <v>791.95174321666661</v>
-      </c>
-      <c r="C158" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D158" s="34"/>
-    </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A177" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A185" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
-    </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A186" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B186" s="9">
-        <v>5</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D186" s="9"/>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A187" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B187" s="9">
-        <v>2</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D187" s="9"/>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A188" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B188" s="9">
-        <v>2</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D188" s="9"/>
-    </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A189" s="9"/>
-      <c r="B189" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-    </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A190" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B190" s="9">
-        <f>B186*(B188/(B188+B187))</f>
-        <v>2.5</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-    </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-    </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A193" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
-    </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A194" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B194" s="9">
-        <v>12</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D194" s="9"/>
-    </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A195" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B195" s="9">
-        <v>6</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D195" s="9"/>
-    </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A196" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B196" s="9">
-        <v>5</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D196" s="9"/>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A197" s="9"/>
-      <c r="B197" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-    </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A198" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B198" s="9">
-        <f>B196*(B194/B195-1)</f>
-        <v>5</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A206" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-    </row>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A207" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B207">
-        <v>20000</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A208" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B208">
-        <v>270</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A209" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" s="10">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B210" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A211" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B211">
-        <f xml:space="preserve"> 1 / (2*3.1415*B208*B209)</f>
-        <v>5894.8013746676806</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A212" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B212" s="10">
-        <f xml:space="preserve"> 1 / (B207*2*3.1415*B209)</f>
-        <v>79.579818558013699</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A213" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B213">
-        <f xml:space="preserve"> 1 / (B207*2*3.1415*B208)</f>
-        <v>2.9474006873338404E-8</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A228" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B228" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C228" s="17"/>
-      <c r="D228" s="17"/>
-      <c r="E228" s="17"/>
-    </row>
-    <row r="229" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B229" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A230" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B230">
-        <f>(B40*B40+B37*B37)^0.5</f>
-        <v>381.83766184073568</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A233" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B233" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
-      <c r="E233" s="17"/>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A235" s="13"/>
-      <c r="B235" s="13"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="13"/>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A236" s="13"/>
-      <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-    </row>
-    <row r="237" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A237" s="13"/>
-      <c r="B237" s="13"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-    </row>
-    <row r="238" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A238" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B238" s="17"/>
-      <c r="C238" s="17"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="17"/>
-    </row>
-    <row r="239" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A239" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B239">
-        <v>5</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A240" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B240">
-        <v>1E-3</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A241" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B241" s="13">
-        <v>5</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-    </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A242" s="13"/>
-      <c r="B242" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C242" s="13"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="13"/>
-    </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A243" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B243" s="13">
-        <f xml:space="preserve"> B240*B241</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C243" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
-    </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A244" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B244" s="13">
-        <f xml:space="preserve"> B239/B241</f>
-        <v>1</v>
-      </c>
-      <c r="C244" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D244" s="13"/>
-      <c r="E244" s="13"/>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A245" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B245" s="13">
-        <f xml:space="preserve"> B239/B240</f>
-        <v>5000</v>
-      </c>
-      <c r="C245" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13"/>
-    </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A247" s="13"/>
-      <c r="B247" s="13"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
-    </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A248" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
-      <c r="E248" s="19"/>
-    </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A249" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B249" s="13">
-        <v>5</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-    </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A250" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B250" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
-    </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A251" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B251" s="14">
-        <v>5000</v>
-      </c>
-      <c r="C251" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-    </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A252" s="13"/>
-      <c r="B252" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C252" s="13"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
-    </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A253" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B253" s="13">
-        <f xml:space="preserve"> B249*B250</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C253" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-    </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B254" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-    </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A255" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B255" s="13">
-        <f xml:space="preserve"> B250*B250 *B251</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C255" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-    </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A256" s="13"/>
-      <c r="B256" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C256" s="13"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
-    </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A257" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B257" s="13">
-        <f xml:space="preserve"> B249*B249 / B251</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C257" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D257" s="13"/>
-      <c r="E257" s="13"/>
-    </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B258" s="13"/>
-      <c r="C258" s="13"/>
-      <c r="D258" s="13"/>
-      <c r="E258" s="13"/>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A259" s="16"/>
-      <c r="B259" s="15"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="15"/>
-      <c r="E259" s="15"/>
-    </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A260" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B260" s="17"/>
-      <c r="C260" s="17"/>
-      <c r="D260" s="17"/>
-      <c r="E260" s="17"/>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A261" t="s">
-        <v>129</v>
-      </c>
-      <c r="B261">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A262" t="s">
-        <v>130</v>
-      </c>
-      <c r="B262">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B263" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A264" t="s">
-        <v>62</v>
-      </c>
-      <c r="B264">
-        <f xml:space="preserve"> B262 / B261</f>
-        <v>7.3529411764705879</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A267" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B267" s="17"/>
-      <c r="C267" s="17"/>
-      <c r="D267" s="17"/>
-      <c r="E267" s="17"/>
-    </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A268" t="s">
-        <v>35</v>
-      </c>
-      <c r="B268">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A269" t="s">
-        <v>37</v>
-      </c>
-      <c r="B269">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A270" t="s">
-        <v>46</v>
-      </c>
-      <c r="B270">
-        <v>9.9999999999999994E-12</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B271" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B272" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A273" t="s">
-        <v>140</v>
-      </c>
-      <c r="B273">
-        <f xml:space="preserve"> 0.693*(B268 + B269)* B270</f>
-        <v>1.39293E-6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A274" t="s">
-        <v>141</v>
-      </c>
-      <c r="B274">
-        <f xml:space="preserve"> 0.693*(B269)* B270</f>
-        <v>1.3859999999999999E-6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B275" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A276" t="s">
-        <v>143</v>
-      </c>
-      <c r="B276">
-        <f xml:space="preserve"> B273 + B274</f>
-        <v>2.7789300000000002E-6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B277" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A278" t="s">
-        <v>44</v>
-      </c>
-      <c r="B278">
-        <f xml:space="preserve"> 1 / B276</f>
-        <v>359850.73391557182</v>
-      </c>
+    <row r="183" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A183" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B183" s="30">
+        <f xml:space="preserve"> B181/20</f>
+        <v>26.773132013055555</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E201" s="12"/>
+    </row>
+    <row r="206" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E206" s="12"/>
+    </row>
+    <row r="207" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E207" s="12"/>
+    </row>
+    <row r="208" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E208" s="12"/>
+    </row>
+    <row r="209" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E209" s="12"/>
+    </row>
+    <row r="210" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E210" s="12"/>
+    </row>
+    <row r="211" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E211" s="12"/>
+    </row>
+    <row r="212" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E212" s="12"/>
+    </row>
+    <row r="213" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E213" s="12"/>
+    </row>
+    <row r="220" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E220" s="12"/>
+    </row>
+    <row r="221" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E221" s="12"/>
+    </row>
+    <row r="222" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E222" s="12"/>
+    </row>
+    <row r="223" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E223" s="12"/>
+    </row>
+    <row r="224" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E224" s="12"/>
+    </row>
+    <row r="225" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E225" s="12"/>
+    </row>
+    <row r="226" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E226" s="12"/>
+    </row>
+    <row r="227" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E227" s="12"/>
+    </row>
+    <row r="228" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E228" s="12"/>
+    </row>
+    <row r="229" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E229" s="12"/>
+    </row>
+    <row r="230" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E230" s="12"/>
+    </row>
+    <row r="231" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E231" s="12"/>
+    </row>
+    <row r="232" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E232" s="12"/>
+    </row>
+    <row r="233" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E233" s="12"/>
+    </row>
+    <row r="234" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E234" s="12"/>
+    </row>
+    <row r="235" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E235" s="12"/>
+    </row>
+    <row r="236" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E236" s="12"/>
+    </row>
+    <row r="237" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E237" s="12"/>
+    </row>
+    <row r="238" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E238" s="12"/>
+    </row>
+    <row r="239" spans="4:5" ht="15.75" customHeight="1">
+      <c r="E239" s="12"/>
+    </row>
+    <row r="240" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+    </row>
+    <row r="241" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+    </row>
+    <row r="242" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+    </row>
+    <row r="243" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+    </row>
+    <row r="244" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+    </row>
+    <row r="245" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+    </row>
+    <row r="246" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+    </row>
+    <row r="247" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+    </row>
+    <row r="248" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+    </row>
+    <row r="250" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+    </row>
+    <row r="258" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+    </row>
+    <row r="259" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+    </row>
+    <row r="282" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+    </row>
+    <row r="283" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
+    </row>
+    <row r="284" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+    </row>
+    <row r="285" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
+    </row>
+    <row r="286" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
+    </row>
+    <row r="287" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+    </row>
+    <row r="288" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+    </row>
+    <row r="289" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B33" r:id="rId1"/>
-    <hyperlink ref="B228" r:id="rId2"/>
-    <hyperlink ref="B87" r:id="rId3"/>
-    <hyperlink ref="B99" r:id="rId4"/>
+    <hyperlink ref="B87" r:id="rId2"/>
+    <hyperlink ref="B99" r:id="rId3"/>
+    <hyperlink ref="F33" r:id="rId4"/>
+    <hyperlink ref="F87" r:id="rId5"/>
+    <hyperlink ref="F99" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/2 Architecture/Product Architecture.xlsx
+++ b/2 Architecture/Product Architecture.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="216">
   <si>
     <t>Project</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>http://www.calculatoredge.com/electronics/ch%20pi%20low%20pass.htm</t>
-  </si>
-  <si>
-    <t>Chebyshev Low pass filter calculations</t>
   </si>
   <si>
     <t>Voltage Divider Analysis</t>
@@ -205,9 +202,6 @@
     <t>Vout = Vin * (Xc / (R^2 + Xc^2)^.5)</t>
   </si>
   <si>
-    <t>TODO Possibly</t>
-  </si>
-  <si>
     <t>Ohm's Law</t>
   </si>
   <si>
@@ -595,12 +589,6 @@
     <t>Cascade BPF Filter (LPF) Component Design (V_High_Worst)</t>
   </si>
   <si>
-    <t>Cascade BPF Filter (HPF) Component Design (V_High_Worst)</t>
-  </si>
-  <si>
-    <t>Cascade BPF Filter (HPF) Component Design (V_Low_Worst)</t>
-  </si>
-  <si>
     <t>5. Length calculation</t>
   </si>
   <si>
@@ -640,16 +628,73 @@
     <t>Safe length</t>
   </si>
   <si>
-    <t>make summing amp 510ohm</t>
-  </si>
-  <si>
-    <t>make sum into wire then to summer</t>
-  </si>
-  <si>
-    <t>add series resistance to even pot changes</t>
-  </si>
-  <si>
-    <t>calculatte pot value</t>
+    <t>CHebyChev Filter Component Design</t>
+  </si>
+  <si>
+    <t>Audio Range Notes</t>
+  </si>
+  <si>
+    <t>Sub Bass</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Low Midrange</t>
+  </si>
+  <si>
+    <t>Midrange</t>
+  </si>
+  <si>
+    <t>Upper Midrange</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>Brilliance</t>
+  </si>
+  <si>
+    <t>20 - 60</t>
+  </si>
+  <si>
+    <t>60 - 250</t>
+  </si>
+  <si>
+    <t>250 - 500</t>
+  </si>
+  <si>
+    <t>500 - 2k</t>
+  </si>
+  <si>
+    <t>2k - 4k</t>
+  </si>
+  <si>
+    <t>4k - 6k</t>
+  </si>
+  <si>
+    <t>6k - 20k</t>
+  </si>
+  <si>
+    <t>https://www-users.cs.york.ac.uk/~fisher/cgi-bin/lcfilter</t>
+  </si>
+  <si>
+    <t>Old Calculations</t>
+  </si>
+  <si>
+    <t>http://interface.khm.de/index.php/lab/interfaces-advanced/arduino-dds-sinewave-generator/</t>
+  </si>
+  <si>
+    <t>f_cuttoff</t>
+  </si>
+  <si>
+    <t>12.5kHz</t>
+  </si>
+  <si>
+    <t>Note: Red tex indicates used values.</t>
+  </si>
+  <si>
+    <t>How much ripple can handle on an audio application. How much can human hear</t>
   </si>
 </sst>
 </file>
@@ -659,7 +704,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -735,6 +780,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -793,7 +845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -815,8 +867,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -840,20 +893,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="19" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="19" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="19"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -881,30 +930,65 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="20" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="20"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="19" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="8" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="21" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="20" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -923,6 +1007,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
     <cellStyle name="Input" xfId="19" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="20" builtinId="21"/>
@@ -1264,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1282,38 +1367,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>81</v>
+      <c r="B2" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="24">
         <v>42882</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>82</v>
+      <c r="B4" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1343,26 +1428,26 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>85</v>
+      <c r="A7" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>95</v>
+      <c r="A8" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -1371,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -1379,8 +1464,8 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>96</v>
+      <c r="A9" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -1389,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -1397,8 +1482,8 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>97</v>
+      <c r="A10" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -1407,15 +1492,15 @@
         <v>24</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>98</v>
+      <c r="A11" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>21</v>
@@ -1424,15 +1509,15 @@
         <v>24</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>114</v>
+      <c r="A12" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -1441,15 +1526,15 @@
         <v>24</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>115</v>
+      <c r="A13" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -1458,15 +1543,15 @@
         <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>116</v>
+      <c r="A14" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -1475,15 +1560,15 @@
         <v>24</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>117</v>
+      <c r="A15" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1492,15 +1577,15 @@
         <v>24</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>118</v>
+      <c r="A16" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -1509,15 +1594,15 @@
         <v>24</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>119</v>
+      <c r="A17" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -1526,15 +1611,15 @@
         <v>24</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>111</v>
+      <c r="A18" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -1543,15 +1628,15 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -1560,15 +1645,15 @@
         <v>24</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>113</v>
+      <c r="A20" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -1577,63 +1662,63 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>71</v>
+      <c r="C21" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
@@ -1650,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L27" s="9"/>
     </row>
@@ -1659,10 +1744,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -1741,58 +1826,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28">
-        <v>42882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -1800,15 +1885,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>94</v>
+      <c r="A11" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -1816,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
@@ -1827,10 +1912,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -1838,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -1849,10 +1934,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
@@ -1860,10 +1945,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -1871,10 +1956,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -1882,10 +1967,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -1893,10 +1978,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
@@ -1926,12 +2011,12 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="17"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>99</v>
+      <c r="A24" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -1940,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J25" s="10"/>
     </row>
@@ -1952,10 +2037,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J26" s="10"/>
     </row>
@@ -1964,10 +2049,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -1986,10 +2071,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -1997,10 +2082,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -2008,14 +2093,14 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32">
@@ -2027,64 +2112,64 @@
       <c r="C32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="6:8" ht="15.75" customHeight="1">
       <c r="G44" s="10"/>
@@ -2130,41 +2215,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>81</v>
+      <c r="B2" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="24">
         <v>42882</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>82</v>
+      <c r="B4" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2205,8 +2290,8 @@
         <f t="shared" ref="D7:D8" si="0">B7*C7</f>
         <v>0.15</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2224,32 +2309,32 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="22">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18">
         <v>0.5</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <v>0.1</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="19">
         <v>0.05</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="25" t="s">
-        <v>79</v>
+      <c r="E9" s="19"/>
+      <c r="F9" s="21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <v>0.5</v>
@@ -2260,14 +2345,14 @@
       <c r="D10" s="8">
         <v>0.01</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
-        <v>80</v>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -2278,16 +2363,16 @@
       <c r="D11" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>80</v>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="22">
+        <v>73</v>
+      </c>
+      <c r="B12" s="18">
         <v>0.5</v>
       </c>
       <c r="C12" s="8">
@@ -2296,14 +2381,14 @@
       <c r="D12" s="8">
         <v>0.05</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
-        <v>78</v>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2314,9 +2399,9 @@
       <c r="D13" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
-        <v>78</v>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -2338,7 +2423,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B17" s="23"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
@@ -7270,2510 +7355,2428 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L289"/>
+  <dimension ref="A1:S289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="52.140625" customWidth="1"/>
-    <col min="9" max="10" width="38.5703125" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13" customWidth="1"/>
+    <col min="5" max="7" width="43" style="13" customWidth="1"/>
+    <col min="8" max="8" width="52.140625" style="13" customWidth="1"/>
+    <col min="9" max="10" width="38.5703125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="13"/>
+    <col min="13" max="13" width="33.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="13"/>
+    <col min="17" max="17" width="33.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="26" t="s">
+      <c r="E1" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="H2" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="34">
         <v>42882</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="E3" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="D6" s="9"/>
-      <c r="E6" t="s">
+      <c r="B4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B9" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A17" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="12.75">
+      <c r="A19" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B20" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A21" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.5">
-      <c r="A8" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" t="s">
+      <c r="B21" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B22" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A23" s="25" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="I22" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="9"/>
-      <c r="I23" s="31" t="s">
-        <v>131</v>
+      <c r="B23" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="16" t="s">
+      <c r="M23" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A24" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="14">
+        <v>100</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="14">
+        <v>2000</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
+      <c r="I25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="M25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="N25" s="14">
+        <v>330</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9"/>
-      <c r="I24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="16">
-        <v>100</v>
-      </c>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1">
+      <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="16">
-        <v>330</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="J26" s="14">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="M26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="39">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="O26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9"/>
-      <c r="I25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="16">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A27" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*N25*N26)</f>
+        <v>21922.815029755835</v>
+      </c>
+      <c r="O28" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="41">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9"/>
-      <c r="I26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="16">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="30">
-        <f xml:space="preserve"> 1 / (2*3.1415*B25*B26)</f>
-        <v>21922.815029755835</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="30">
-        <f xml:space="preserve"> 1 / (B24*2*3.1415*B26)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="I29" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="30">
+      <c r="J29" s="35">
         <f xml:space="preserve"> 0.693*(J24 + J25)* J26</f>
         <v>7.6229999999999994E-5</v>
       </c>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="30">
-        <f xml:space="preserve"> 1 / (B24*2*3.1415*B25)</f>
-        <v>2.411509653273142E-7</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="I30" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="30">
+      <c r="K29" s="35"/>
+      <c r="M29" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="35">
+        <f xml:space="preserve"> 1 / (N24*2*3.1415*N26)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="O29" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+      <c r="I30" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="35">
         <f xml:space="preserve"> 0.693*(J25)* J26</f>
         <v>6.929999999999999E-5</v>
       </c>
-      <c r="K30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D31" s="12"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" s="9"/>
+      <c r="K30" s="35"/>
+      <c r="M30" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="35">
+        <f xml:space="preserve"> 1 / (N24*2*3.1415*N25)</f>
+        <v>2.411509653273142E-7</v>
+      </c>
+      <c r="O30" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1">
+      <c r="J31" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D32" s="12"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A32" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="25"/>
       <c r="E32" s="12"/>
-      <c r="I32" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="30">
+      <c r="I32" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="35">
         <f xml:space="preserve"> J29 + J30</f>
         <v>1.4553E-4</v>
       </c>
-      <c r="K32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A33" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="K32" s="35"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:19" ht="26.25" customHeight="1">
+      <c r="A33" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="N33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="R33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="30">
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1">
+      <c r="I34" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="35">
         <f xml:space="preserve"> 1 / J32</f>
         <v>6871.4354428640145</v>
       </c>
-      <c r="K34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="16" t="s">
+      <c r="K34" s="35"/>
+      <c r="M34" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" s="14">
+        <v>2000</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="41">
+      <c r="P34" s="12"/>
+      <c r="Q34" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" s="14">
+        <v>2000</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1">
+      <c r="M35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="39">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="42">
+      <c r="O35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" s="40">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*B34*B35)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="C37" s="35" t="s">
+      <c r="S35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*F34*F35)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>31</v>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A36" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" s="12"/>
+      <c r="R36" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15">
+      <c r="A37" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D38" s="12"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="I38" s="16" t="s">
+      <c r="M37" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*N34*N35)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*R34*R35)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="S37" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="26.25">
+      <c r="A38" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="14">
+        <v>5</v>
+      </c>
+      <c r="K38" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J38" s="16">
-        <v>5</v>
-      </c>
-      <c r="K38" s="16" t="s">
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1">
+      <c r="I39" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="16" t="s">
+      <c r="J39" s="14">
+        <v>2</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="16">
-        <v>4.3</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="16" t="s">
+      <c r="P39" s="12"/>
+      <c r="Q39" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="S39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="16">
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1">
+      <c r="I40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="14">
         <v>2</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="14">
+        <f xml:space="preserve"> N25</f>
+        <v>330</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R40" s="14">
+        <v>330</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A41" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="J41" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="16">
-        <f xml:space="preserve"> B25</f>
-        <v>330</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="16">
-        <v>330</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="16" t="s">
+      <c r="L41" s="12"/>
+      <c r="N41" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P41" s="12"/>
+      <c r="R41" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A42" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="I42" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="16">
-        <v>2</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B41" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="30">
-        <f xml:space="preserve"> B39 * (B37 / SQRT((B40*B40 + B37*B37)))</f>
-        <v>4.2822169928878395</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="30">
-        <f xml:space="preserve"> F39 * (F37 / (F40*F40 + F37*F37)^0.5)</f>
-        <v>0.59751865017039618</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="30">
+      <c r="J42" s="35">
         <f>J38*(J40/(J40+J39))</f>
         <v>2.5</v>
       </c>
-      <c r="K42" s="30" t="s">
-        <v>33</v>
+      <c r="K42" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M42" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" s="35">
+        <f xml:space="preserve"> N39 * (N37 / SQRT((N40*N40 + N37*N37)))</f>
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="O42" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="R42" s="35">
+        <f xml:space="preserve"> R39 * (R37 / (R40*R40 + R37*R37)^0.5)</f>
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="S42" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="14">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="D43" s="12"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="14">
+        <v>3900</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="D44" s="12"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" ht="12.75">
+    </row>
+    <row r="45" spans="1:19" ht="15">
+      <c r="A45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="39">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="I45" s="31" t="s">
-        <v>38</v>
+      <c r="I45" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="21" t="s">
-        <v>163</v>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1">
+      <c r="B46" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="D46" s="12"/>
-      <c r="E46" s="9"/>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="14">
+        <v>12</v>
+      </c>
+      <c r="K46" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J46" s="16">
-        <v>12</v>
-      </c>
-      <c r="K46" s="16" t="s">
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A47" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B44*B45)</f>
+        <v>1855.0074255947247</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="I47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="14">
+        <v>6</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A48" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="35" t="e">
+        <f xml:space="preserve"> 1 / (B43*2*3.1415*B45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="I48" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="14">
+        <v>5</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A49" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="35" t="e">
+        <f xml:space="preserve"> 1 / (B43*2*3.1415*B44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="42"/>
+      <c r="J49" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" ht="15">
+      <c r="D50" s="12"/>
+      <c r="I50" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="9"/>
-      <c r="I47" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="16">
-        <v>6</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="9"/>
-      <c r="I48" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="16">
-        <v>5</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="16">
-        <v>3900</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" ht="15">
-      <c r="A50" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="41">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="9"/>
-      <c r="I50" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="30">
+      <c r="J50" s="35">
         <f>J48*(J46/J47-1)</f>
         <v>5</v>
       </c>
-      <c r="K50" s="30" t="s">
-        <v>35</v>
+      <c r="K50" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="9"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="9"/>
       <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="30">
-        <f xml:space="preserve"> 1 / (2*3.1415*B49*B50)</f>
-        <v>1855.0074255947247</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>45</v>
-      </c>
+      <c r="A52" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="9"/>
-      <c r="I52" s="10"/>
+      <c r="E52" s="12"/>
+      <c r="I52" s="25"/>
       <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A53" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="30">
-        <f xml:space="preserve"> 1 / (B48*2*3.1415*B50)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>46</v>
+      <c r="A53" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="14">
+        <v>0</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D53" s="12"/>
-      <c r="I53" s="31" t="s">
-        <v>53</v>
+      <c r="I53" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="I54" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="14">
+        <v>5</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="I55" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B56" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="I56" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" s="14">
+        <v>5</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A57" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B54*B55)</f>
+        <v>7234.5289598194258</v>
+      </c>
+      <c r="C57" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="30">
-        <f xml:space="preserve"> 1 / (B48*2*3.1415*B49)</f>
-        <v>2.0405081681541972E-8</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="43"/>
-      <c r="I54" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J54" s="16">
-        <v>5</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D55" s="12"/>
-      <c r="I55" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D56" s="12"/>
-      <c r="E56" s="9"/>
-      <c r="I56" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J56" s="18">
-        <v>5</v>
-      </c>
-      <c r="K56" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A57" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="13" t="s">
-        <v>55</v>
+      <c r="J57" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C58" s="16" t="s">
+      <c r="B58" s="35" t="e">
+        <f xml:space="preserve"> 1 / (B53*2*3.1415*B55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C58" s="35" t="s">
         <v>45</v>
       </c>
       <c r="D58" s="12"/>
-      <c r="E58" s="9"/>
+      <c r="F58" s="12"/>
       <c r="I58" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J58" s="35">
         <f xml:space="preserve"> J55*J56</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="16">
-        <v>1000</v>
-      </c>
-      <c r="C59" s="16" t="s">
+      <c r="B59" s="35" t="e">
+        <f xml:space="preserve"> 1 / (B53*2*3.1415*B54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>46</v>
       </c>
       <c r="D59" s="12"/>
-      <c r="E59" s="9"/>
+      <c r="F59" s="12"/>
       <c r="I59" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J59" s="35">
         <f xml:space="preserve"> J54/J56</f>
         <v>1</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="D60" s="12"/>
-      <c r="E60" s="9"/>
+      <c r="F60" s="12"/>
       <c r="I60" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J60" s="35">
         <f xml:space="preserve"> J54/J55</f>
         <v>5000</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="9"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="9"/>
       <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A62" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="30">
-        <f xml:space="preserve"> 1 / (2*3.1415*B59*B60)</f>
-        <v>7234.5289598194258</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>45</v>
-      </c>
+      <c r="A62" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="12"/>
+      <c r="E62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="30">
-        <f xml:space="preserve"> 1 / (B58*2*3.1415*B60)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>46</v>
+      <c r="A63" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="14">
+        <v>0</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D63" s="12"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="12"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="31" t="s">
-        <v>57</v>
+      <c r="I63" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="I64" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="14">
+        <v>5</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A65" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="I65" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="I66" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" s="14">
+        <v>330</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" spans="1:12" ht="15">
+      <c r="A67" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B64*B65)</f>
+        <v>7234.5289598194258</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="30">
-        <f xml:space="preserve"> 1 / (B58*2*3.1415*B59)</f>
-        <v>7.9579818558013689E-8</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="12"/>
-      <c r="I64" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" s="18">
-        <v>5</v>
-      </c>
-      <c r="K64" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="I65" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J65" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="K65" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D66" s="12"/>
-      <c r="I66" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J66" s="18">
-        <v>330</v>
-      </c>
-      <c r="K66" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="1:12" ht="25.5">
-      <c r="A67" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
       <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="13" t="s">
-        <v>60</v>
+      <c r="J67" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="B68" s="35" t="e">
+        <f xml:space="preserve"> 1 / (B63*2*3.1415*B65)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C68" s="35" t="s">
         <v>45</v>
       </c>
       <c r="D68" s="12"/>
       <c r="I68" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J68" s="35">
         <f xml:space="preserve"> J64*J65</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K68" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A69" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="35" t="e">
+        <f xml:space="preserve"> 1 / (B63*2*3.1415*B64)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="J69" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L68" s="12"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="16">
-        <v>1000</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="J69" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="L69" s="12"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="D70" s="12"/>
       <c r="I70" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J70" s="35">
         <f xml:space="preserve"> J65*J65 *J66</f>
         <v>3.3E-4</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L70" s="12"/>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="13" t="s">
-        <v>62</v>
+      <c r="J71" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A72" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="30">
-        <f xml:space="preserve"> 1 / (2*3.1415*B69*B70)</f>
-        <v>7234.5289598194258</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>45</v>
+      <c r="A72" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="D72" s="12"/>
       <c r="I72" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J72" s="35">
         <f xml:space="preserve"> J64*J64 / J66</f>
         <v>7.575757575757576E-2</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="14">
+        <v>0</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="14">
+        <v>3900</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="30">
-        <f xml:space="preserve"> 1 / (B68*2*3.1415*B70)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="C73" s="30" t="s">
+      <c r="B75" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="L73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="30">
-        <f xml:space="preserve"> 1 / (B68*2*3.1415*B69)</f>
-        <v>7.9579818558013689E-8</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="12"/>
-      <c r="L74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="D75" s="12"/>
-      <c r="I75" s="31" t="s">
-        <v>122</v>
+      <c r="I75" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
     </row>
-    <row r="76" spans="1:12" s="15" customFormat="1" ht="15">
+    <row r="76" spans="1:12" ht="15">
+      <c r="B76" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="D76" s="12"/>
-      <c r="I76" s="16" t="s">
+      <c r="I76" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" s="14">
+        <v>680</v>
+      </c>
+      <c r="K76" s="14"/>
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" ht="15">
+      <c r="A77" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B74*B75)</f>
+        <v>1855.0074255947247</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="I77" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J77" s="14">
+        <v>5000</v>
+      </c>
+      <c r="K77" s="14"/>
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A78" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="35" t="e">
+        <f xml:space="preserve"> 1 / (B73*2*3.1415*B75)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="J78" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="J76" s="16">
-        <v>680</v>
-      </c>
-      <c r="K76" s="16"/>
-      <c r="L76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" ht="26.25">
-      <c r="A77" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="12"/>
-      <c r="I77" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J77" s="16">
-        <v>5000</v>
-      </c>
-      <c r="K77" s="16"/>
-      <c r="L77" s="12"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A78" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="J78" t="s">
-        <v>125</v>
-      </c>
       <c r="L78" s="12"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="16">
-        <v>3900</v>
-      </c>
-      <c r="C79" s="16" t="s">
+      <c r="B79" s="35" t="e">
+        <f xml:space="preserve"> 1 / (B73*2*3.1415*B74)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C79" s="35" t="s">
         <v>46</v>
       </c>
       <c r="D79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="I79" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J79" s="30">
+      <c r="I79" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J79" s="35">
         <f xml:space="preserve"> J77 / J76</f>
         <v>7.3529411764705879</v>
       </c>
-      <c r="K79" s="30"/>
+      <c r="K79" s="35"/>
       <c r="L79" s="12"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A80" s="16" t="s">
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" ht="25.5">
+      <c r="A82" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A83" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="16">
+      <c r="D83" s="12"/>
+      <c r="E83" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="14">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A84" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="14">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="C80" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10" t="s">
+      <c r="C84" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B85" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="12"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A82" s="30" t="s">
+      <c r="D85" s="12"/>
+      <c r="F85" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B83*B84)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F83*F84)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" s="43"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+      <c r="D87" s="12"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="14">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="14">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A89" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="30">
-        <f xml:space="preserve"> 1 / (2*3.1415*B79*B80)</f>
-        <v>1855.0074255947247</v>
-      </c>
-      <c r="C82" s="30" t="s">
+      <c r="B89" s="14">
+        <v>3900</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A83" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="30">
-        <f xml:space="preserve"> 1 / (B78*2*3.1415*B80)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A84" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="30">
-        <f xml:space="preserve"> 1 / (B78*2*3.1415*B79)</f>
-        <v>2.0405081681541972E-8</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D84" s="12"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D85" s="12"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A87" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A88" s="16" t="s">
+      <c r="D89" s="12"/>
+      <c r="E89" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B88" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C88" s="16" t="s">
+      <c r="F89" s="14">
+        <v>3900</v>
+      </c>
+      <c r="G89" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F88" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A89" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="9"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B90" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="D90" s="12"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F90" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B91" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*B88*B89)</f>
-        <v>3617.2644799097129</v>
+        <f xml:space="preserve"> B88 * (B86 / (B89*B89 + B86*B86)^0.5)</f>
+        <v>2.9120386657026849</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F91" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*F88*F89)</f>
+        <f xml:space="preserve"> F88 * (F86 / (F89*F89 + F86*F86)^0.5)</f>
+        <v>0.40633097660967693</v>
+      </c>
+      <c r="G91" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:8" ht="25.5">
+      <c r="A94" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A95" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="14">
+        <v>2000</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B97" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="F97" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A98" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B95*B96)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="G91" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A93" s="16" t="s">
+      <c r="C98" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F95*F96)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G98" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="14">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="16">
-        <v>4.2822169928878395</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="16" t="s">
+      <c r="D100" s="12"/>
+      <c r="E100" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" s="14">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G100" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F93" s="16">
-        <v>0.59751865017039618</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A94" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" s="16">
-        <v>3900</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="16">
-        <v>3900</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A96" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="30">
-        <f xml:space="preserve"> B93 * (B91 / (B94*B94 + B91*B91)^0.5)</f>
-        <v>2.9120386657026849</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F96" s="30">
-        <f xml:space="preserve"> F93 * (F91 / (F94*F94 + F91*F91)^0.5)</f>
-        <v>0.40633097660967693</v>
-      </c>
-      <c r="G96" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A99" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A100" s="16" t="s">
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A101" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C100" s="16" t="s">
+      <c r="B101" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="16" t="s">
+      <c r="D101" s="12"/>
+      <c r="E101" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F100" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G100" s="16" t="s">
+      <c r="F101" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A101" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" s="9"/>
+      <c r="B102" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="D102" s="12"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G102" s="9"/>
+      <c r="F102" s="25" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1">
       <c r="A103" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B103" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*B100*B101)</f>
-        <v>3617.2644799097129</v>
+        <f xml:space="preserve"> B100 * (B101 / (B101*B101 + B98*B98)^0.5)</f>
+        <v>1.1410281948712884</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="35">
+        <f xml:space="preserve"> F100 * (F101 / (F101*F101 + F98*F98)^0.5)</f>
+        <v>0.15921323649366811</v>
+      </c>
+      <c r="G103" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D104" s="12"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D105" s="12"/>
+    </row>
+    <row r="106" spans="1:7" ht="25.5">
+      <c r="A106" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A107" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="14">
+        <v>2000</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A108" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B109" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="12"/>
+      <c r="F109" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A110" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B107*B108)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="12"/>
+      <c r="E110" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F107*F108)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12.75">
+      <c r="D111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A112" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="14">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="14">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A113" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" s="12"/>
+      <c r="E113" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B114" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*F100*F101)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="G103" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A105" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="16">
-        <v>4.2822169928878395</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105" s="16">
-        <v>0.59751865017039618</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A106" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="16">
-        <v>1000</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F106" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A108" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="30">
-        <f xml:space="preserve"> B105 * (B106 / (B106*B106 + B103*B103)^0.5)</f>
-        <v>1.1410281948712884</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="12"/>
-      <c r="E108" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" s="30">
-        <f xml:space="preserve"> F105 * (F106 / (F106*F106 + F103*F103)^0.5)</f>
-        <v>0.15921323649366811</v>
-      </c>
-      <c r="G108" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D109" s="12"/>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D110" s="12"/>
-    </row>
-    <row r="111" spans="1:7" ht="25.5">
-      <c r="A111" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A112" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B112" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F112" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A113" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B113" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F113" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C114" s="9"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G114" s="9"/>
+      <c r="F114" s="25" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1">
       <c r="A115" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B115" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*B112*B113)</f>
-        <v>3617.2644799097129</v>
+        <f xml:space="preserve"> B112 * (B110 / (B113*B113 + B110*B110)^0.5)</f>
+        <v>4.1274007598834093</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F115" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*F112*F113)</f>
+        <f xml:space="preserve"> F112 * (F110 / (F113*F113 + F110*F110)^0.5)</f>
+        <v>0.57591638510001053</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D116" s="12"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A117" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="12"/>
+      <c r="E117" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F117" s="14">
+        <v>2000</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15">
+      <c r="A118" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" s="14">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B119" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="12"/>
+      <c r="F119" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A120" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*B117*B118)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="G115" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A117" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117" s="16">
-        <v>4.2822169928878395</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117" s="16">
-        <v>0.59751865017039618</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A118" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="16">
-        <v>1000</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F118" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A119" s="9"/>
-      <c r="B119" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A120" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B120" s="30">
-        <f xml:space="preserve"> B117 * (B115 / (B118*B118 + B115*B115)^0.5)</f>
-        <v>4.1274007598834093</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>33</v>
+      <c r="C120" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="D120" s="12"/>
-      <c r="E120" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F120" s="30">
-        <f xml:space="preserve"> F117 * (F115 / (F118*F118 + F115*F115)^0.5)</f>
-        <v>0.57591638510001053</v>
-      </c>
-      <c r="G120" s="30" t="s">
-        <v>33</v>
+      <c r="E120" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F120" s="35">
+        <f xml:space="preserve"> 1 / (2*3.1415*F117*F118)</f>
+        <v>3617.2644799097129</v>
+      </c>
+      <c r="G120" s="35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1">
       <c r="D121" s="12"/>
-      <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A122" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="14">
+        <v>4.1274007598834093</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="D122" s="12"/>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="123" spans="1:7" ht="25.5">
-      <c r="A123" s="36" t="s">
-        <v>182</v>
+      <c r="E122" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="14">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15">
+      <c r="A123" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123" s="14">
+        <v>3900</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D123" s="12"/>
-      <c r="E123" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="E123" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" s="14">
+        <v>3900</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A124" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B124" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>45</v>
+      <c r="B124" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="D124" s="12"/>
-      <c r="E124" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F124" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>45</v>
+      <c r="F124" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A125" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B125" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>47</v>
+      <c r="A125" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="35">
+        <f xml:space="preserve"> B122 * (B123 / (B123*B123 + B120*B120)^0.5)</f>
+        <v>3.0261430207293838</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="D125" s="12"/>
-      <c r="E125" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F125" s="16">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A126" s="9"/>
-      <c r="B126" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A127" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B127" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*B124*B125)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F127" s="35">
-        <f xml:space="preserve"> 1 / (2*3.1415*F124*F125)</f>
-        <v>3617.2644799097129</v>
-      </c>
-      <c r="G127" s="35" t="s">
-        <v>46</v>
+      <c r="E125" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="35">
+        <f xml:space="preserve"> F122 * (F123 / (F123*F123 + F120*F120)^0.5)</f>
+        <v>0.4380909434682238</v>
+      </c>
+      <c r="G125" s="35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
       <c r="D128" s="12"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A129" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="16">
-        <v>4.1274007598834093</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1">
       <c r="D129" s="12"/>
-      <c r="E129" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F129" s="16">
-        <v>0.59751865017039618</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A130" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B130" s="16">
-        <v>3900</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="12"/>
-      <c r="E130" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F130" s="16">
-        <v>3900</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G131" s="9"/>
-    </row>
-    <row r="132" spans="1:7" ht="15">
-      <c r="A132" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B132" s="30">
-        <f xml:space="preserve"> B129 * (B130 / (B130*B130 + B127*B127)^0.5)</f>
-        <v>3.0261430207293838</v>
-      </c>
-      <c r="C132" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D132" s="12"/>
-      <c r="E132" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F132" s="30">
-        <f xml:space="preserve"> F129 * (F130 / (F130*F130 + F127*F127)^0.5)</f>
-        <v>0.4380909434682238</v>
-      </c>
-      <c r="G132" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D133" s="12"/>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D134" s="12"/>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+    </row>
+    <row r="132" spans="1:6" ht="12.75">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-    </row>
-    <row r="136" spans="1:7" ht="12.75">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-    </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
+    </row>
+    <row r="136" spans="1:6" ht="12.75"/>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A143" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A144" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A145" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="14">
+        <v>2.9120386657026849</v>
+      </c>
+      <c r="C145" s="14"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F145" s="14">
+        <v>0.40633097660967693</v>
+      </c>
+      <c r="G145" s="14"/>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A146" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="14">
+        <v>1.1410281948712884</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F146" s="14">
+        <v>0.15921323649366811</v>
+      </c>
+      <c r="G146" s="14"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A147" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147" s="14">
+        <v>3.0261430207293838</v>
+      </c>
+      <c r="C147" s="14"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F147" s="14">
+        <v>0.4380909434682238</v>
+      </c>
+      <c r="G147" s="14"/>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A148" s="39" t="s">
+      <c r="A148" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="14">
+        <v>0</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F148" s="14">
+        <v>0</v>
+      </c>
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A149" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" s="14">
+        <v>500</v>
+      </c>
+      <c r="C149" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D149" s="12"/>
+      <c r="E149" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F149" s="14">
+        <v>500</v>
+      </c>
+      <c r="G149" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A150" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" s="14">
+        <v>5600</v>
+      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F150" s="14">
+        <v>3000</v>
+      </c>
+      <c r="G150" s="14"/>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B151" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="F151" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A152" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B152" s="35">
+        <f xml:space="preserve"> B149/B150 * (B145 + B146 + B147 + B148)</f>
+        <v>0.63207231083065685</v>
+      </c>
+      <c r="C152" s="35">
+        <f xml:space="preserve"> C149/B150 * (B145 + B146 + B147 + B148)</f>
+        <v>6.3207231083065691</v>
+      </c>
+      <c r="D152" s="12"/>
+      <c r="E152" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="35">
+        <f xml:space="preserve"> F149/F150 * (F145 + F146 + F147 + F148)</f>
+        <v>0.16727252609526147</v>
+      </c>
+      <c r="G152" s="35">
+        <f xml:space="preserve"> G149/F150 * (F145 + F146 + F147 + F148)</f>
+        <v>1.6727252609526149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A155" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155" s="26" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A149" s="21" t="s">
+      <c r="F155" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A156" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B156" s="14">
+        <v>0</v>
+      </c>
+      <c r="C156" s="14"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="14">
+        <v>0</v>
+      </c>
+      <c r="G156" s="14"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A157" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B157" s="14">
+        <v>0</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F157" s="14">
+        <v>0</v>
+      </c>
+      <c r="G157" s="14"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A158" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B158" s="14">
+        <v>0</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F158" s="14">
+        <v>0</v>
+      </c>
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A159" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B159" s="14">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="14">
+        <v>0.59751865017039618</v>
+      </c>
+      <c r="G159" s="14"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A160" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="14">
+        <v>500</v>
+      </c>
+      <c r="C160" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F160" s="14">
+        <v>500</v>
+      </c>
+      <c r="G160" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A161" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B161" s="14">
+        <v>3900</v>
+      </c>
+      <c r="C161" s="14"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F161" s="14">
+        <v>3000</v>
+      </c>
+      <c r="G161" s="14"/>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B162" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D162" s="12"/>
+      <c r="F162" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A163" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="35">
+        <f xml:space="preserve"> B160/B161 * (B156 + B157 + B158 + B159)</f>
+        <v>0.54900217857536404</v>
+      </c>
+      <c r="C163" s="35">
+        <f xml:space="preserve"> C160/B161 * (B156 + B157 + B158 + B159)</f>
+        <v>5.4900217857536413</v>
+      </c>
+      <c r="D163" s="12"/>
+      <c r="E163" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F163" s="35">
+        <f xml:space="preserve"> F160/F161 * (F156 + F157 + F158 + F159)</f>
+        <v>9.958644169506603E-2</v>
+      </c>
+      <c r="G163" s="35">
+        <f xml:space="preserve"> G160/F161 * (F156 + F157 + F158 + F159)</f>
+        <v>0.9958644169506603</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A167" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B167" s="25"/>
+      <c r="D167" s="12"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A168" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168" s="14">
+        <v>36000</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D168" s="12"/>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A169" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B169" s="14">
+        <f xml:space="preserve"> 10*B168</f>
+        <v>360000</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D169" s="12"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A170" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" s="14">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C170" s="14"/>
+      <c r="D170" s="12"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A171" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" s="14">
+        <v>299792458</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D171" s="12"/>
+    </row>
+    <row r="172" spans="1:7" ht="15">
+      <c r="A172" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172" s="44">
+        <v>535</v>
+      </c>
+      <c r="C172" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D172" s="12"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B173" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D173" s="12"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D174" s="12"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A175" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B175" s="35">
+        <f>(B171*B170) / B172</f>
+        <v>360311.30933457945</v>
+      </c>
+      <c r="C175" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D175" s="12"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A176" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B176" s="35">
+        <f>(B171*B170) / B169</f>
+        <v>535.46264026111112</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A178" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178" s="35">
+        <f xml:space="preserve"> B176/20</f>
+        <v>26.773132013055555</v>
+      </c>
+      <c r="C178" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A150" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B150" s="16">
-        <v>2.9120386657026849</v>
-      </c>
-      <c r="C150" s="16"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F150" s="16">
-        <v>0.40633097660967693</v>
-      </c>
-      <c r="G150" s="16"/>
-    </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A151" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B151" s="16">
-        <v>1.1410281948712884</v>
-      </c>
-      <c r="C151" s="16"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F151" s="16">
-        <v>0.15921323649366811</v>
-      </c>
-      <c r="G151" s="16"/>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A152" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B152" s="16">
-        <v>3.0261430207293838</v>
-      </c>
-      <c r="C152" s="16"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F152" s="16">
-        <v>0.4380909434682238</v>
-      </c>
-      <c r="G152" s="16"/>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A153" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B153" s="16">
-        <v>0</v>
-      </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F153" s="16">
-        <v>0</v>
-      </c>
-      <c r="G153" s="16"/>
-    </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A154" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B154" s="16">
-        <v>500</v>
-      </c>
-      <c r="C154" s="16">
-        <v>5000</v>
-      </c>
-      <c r="D154" s="12"/>
-      <c r="E154" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F154" s="16">
-        <v>500</v>
-      </c>
-      <c r="G154" s="16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A155" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B155" s="16">
-        <v>5600</v>
-      </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F155" s="16">
-        <v>3000</v>
-      </c>
-      <c r="G155" s="16"/>
-    </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B156" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D156" s="12"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G156" s="9"/>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A157" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B157" s="30">
-        <f xml:space="preserve"> B154/B155 * (B150 + B151 + B152 + B153)</f>
-        <v>0.63207231083065685</v>
-      </c>
-      <c r="C157" s="30">
-        <f xml:space="preserve"> C154/B155 * (B150 + B151 + B152 + B153)</f>
-        <v>6.3207231083065691</v>
-      </c>
-      <c r="D157" s="12"/>
-      <c r="E157" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F157" s="30">
-        <f xml:space="preserve"> F154/F155 * (F150 + F151 + F152 + F153)</f>
-        <v>0.16727252609526147</v>
-      </c>
-      <c r="G157" s="30">
-        <f xml:space="preserve"> G154/F155 * (F150 + F151 + F152 + F153)</f>
-        <v>1.6727252609526149</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A160" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F160" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G160" s="9"/>
-    </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A161" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B161" s="16">
-        <v>0</v>
-      </c>
-      <c r="C161" s="16"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F161" s="16">
-        <v>0</v>
-      </c>
-      <c r="G161" s="16"/>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A162" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B162" s="16">
-        <v>0</v>
-      </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F162" s="16">
-        <v>0</v>
-      </c>
-      <c r="G162" s="16"/>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A163" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B163" s="16">
-        <v>0</v>
-      </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F163" s="16">
-        <v>0</v>
-      </c>
-      <c r="G163" s="16"/>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A164" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B164" s="16">
-        <v>4.2822169928878395</v>
-      </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F164" s="16">
-        <v>0.59751865017039618</v>
-      </c>
-      <c r="G164" s="16"/>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A165" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B165" s="16">
-        <v>500</v>
-      </c>
-      <c r="C165" s="16">
-        <v>5000</v>
-      </c>
-      <c r="D165" s="12"/>
-      <c r="E165" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F165" s="16">
-        <v>500</v>
-      </c>
-      <c r="G165" s="16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A166" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B166" s="16">
-        <v>3900</v>
-      </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F166" s="16">
-        <v>3000</v>
-      </c>
-      <c r="G166" s="16"/>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A167" s="9"/>
-      <c r="B167" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G167" s="9"/>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A168" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B168" s="30">
-        <f xml:space="preserve"> B165/B166 * (B161 + B162 + B163 + B164)</f>
-        <v>0.54900217857536404</v>
-      </c>
-      <c r="C168" s="30">
-        <f xml:space="preserve"> C165/B166 * (B161 + B162 + B163 + B164)</f>
-        <v>5.4900217857536413</v>
-      </c>
-      <c r="D168" s="12"/>
-      <c r="E168" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F168" s="30">
-        <f xml:space="preserve"> F165/F166 * (F161 + F162 + F163 + F164)</f>
-        <v>9.958644169506603E-2</v>
-      </c>
-      <c r="G168" s="30">
-        <f xml:space="preserve"> G165/F166 * (F161 + F162 + F163 + F164)</f>
-        <v>0.9958644169506603</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="12.75">
-      <c r="A172" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B172" s="10"/>
-      <c r="D172" s="12"/>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A173" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B173" s="16">
-        <v>36000</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D173" s="12"/>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A174" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B174" s="16">
-        <f xml:space="preserve"> 10*B173</f>
-        <v>360000</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D174" s="12"/>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A175" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B175" s="16">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="C175" s="16"/>
-      <c r="D175" s="12"/>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A176" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B176" s="16">
-        <v>299792458</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D176" s="12"/>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A177" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="B177" s="40">
-        <v>535</v>
-      </c>
-      <c r="C177" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D177" s="12"/>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B178" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D178" s="12"/>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D179" s="12"/>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A180" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B180" s="30">
-        <f>(B176*B175) / B177</f>
-        <v>360311.30933457945</v>
-      </c>
-      <c r="C180" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D180" s="12"/>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A181" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B181" s="30">
-        <f>(B176*B175) / B174</f>
-        <v>535.46264026111112</v>
-      </c>
-      <c r="C181" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A183" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="B183" s="30">
-        <f xml:space="preserve"> B181/20</f>
-        <v>26.773132013055555</v>
-      </c>
-      <c r="C183" s="30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="201" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E201" s="12"/>
-    </row>
-    <row r="206" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E206" s="12"/>
-    </row>
-    <row r="207" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E207" s="12"/>
-    </row>
-    <row r="208" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E208" s="12"/>
-    </row>
-    <row r="209" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E209" s="12"/>
-    </row>
-    <row r="210" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E210" s="12"/>
-    </row>
-    <row r="211" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E211" s="12"/>
-    </row>
-    <row r="212" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E212" s="12"/>
-    </row>
-    <row r="213" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E213" s="12"/>
     </row>
     <row r="220" spans="5:5" ht="15.75" customHeight="1">
       <c r="E220" s="12"/>
@@ -9917,15 +9920,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
-    <hyperlink ref="B87" r:id="rId2"/>
-    <hyperlink ref="B99" r:id="rId3"/>
-    <hyperlink ref="F33" r:id="rId4"/>
-    <hyperlink ref="F87" r:id="rId5"/>
-    <hyperlink ref="F99" r:id="rId6"/>
+    <hyperlink ref="N33" r:id="rId1"/>
+    <hyperlink ref="B82" r:id="rId2"/>
+    <hyperlink ref="B94" r:id="rId3"/>
+    <hyperlink ref="R33" r:id="rId4"/>
+    <hyperlink ref="F82" r:id="rId5"/>
+    <hyperlink ref="F94" r:id="rId6"/>
+    <hyperlink ref="C33" r:id="rId7"/>
+    <hyperlink ref="B33" r:id="rId8"/>
+    <hyperlink ref="A38" r:id="rId9"/>
+    <hyperlink ref="A37" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/2 Architecture/Product Architecture.xlsx
+++ b/2 Architecture/Product Architecture.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Current Budget" sheetId="3" r:id="rId3"/>
     <sheet name="Calculations" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -170,12 +170,516 @@
     <t>F</t>
   </si>
   <si>
+    <t>Xc = 1 / ((2πfC)</t>
+  </si>
+  <si>
+    <t>Xc</t>
+  </si>
+  <si>
+    <t>Vout = Vin * (Xc / (R^2 + Xc^2)^.5)</t>
+  </si>
+  <si>
+    <t>Ohm's Law</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>V = I*R</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Power Calculation</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P = V*I </t>
+  </si>
+  <si>
+    <t>P = I^2*R</t>
+  </si>
+  <si>
+    <t>P = V^2 / R</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>INTERFACE NAME</t>
+  </si>
+  <si>
+    <t>Pin Number</t>
+  </si>
+  <si>
+    <t>Connected Signal</t>
+  </si>
+  <si>
+    <t>20khz</t>
+  </si>
+  <si>
+    <t>3 Band EQ Signal Out</t>
+  </si>
+  <si>
+    <t>LPF Signal Out</t>
+  </si>
+  <si>
+    <t>Speaker Signal In</t>
+  </si>
+  <si>
+    <t>10-40ma</t>
+  </si>
+  <si>
+    <t>25mA</t>
+  </si>
+  <si>
+    <t>Var Freq POT</t>
+  </si>
+  <si>
+    <t>Push Button</t>
+  </si>
+  <si>
+    <t>3 Band Eq</t>
+  </si>
+  <si>
+    <t>Slide Switch</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>6V</t>
+  </si>
+  <si>
+    <t>1V - 5V</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>Zacher Tiburzi</t>
+  </si>
+  <si>
+    <t>V_03</t>
+  </si>
+  <si>
+    <t>Computer / Uno</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Serial PC-Uno Signal</t>
+  </si>
+  <si>
+    <t>Pin 13</t>
+  </si>
+  <si>
+    <t>Pin 12</t>
+  </si>
+  <si>
+    <t>Pin 11</t>
+  </si>
+  <si>
+    <t>Pin 10</t>
+  </si>
+  <si>
+    <t>Pin 9</t>
+  </si>
+  <si>
+    <t>Pin 6</t>
+  </si>
+  <si>
+    <t>Pin 5</t>
+  </si>
+  <si>
+    <t>Pin 3</t>
+  </si>
+  <si>
+    <t>Uno / DDS Pin Interface</t>
+  </si>
+  <si>
+    <t>ATTiny Program 1 Signal</t>
+  </si>
+  <si>
+    <t>ATTiny Program 2 Signal</t>
+  </si>
+  <si>
+    <t>ATTiny Program 3 Signal</t>
+  </si>
+  <si>
+    <t>ATTiny Program 4 Signal</t>
+  </si>
+  <si>
+    <t>ATTIny85</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>ATTiny Program 1 Signal / Var. Freq. Signal</t>
+  </si>
+  <si>
+    <t>ATTiny Program 2 Signal / On-Off State Signal</t>
+  </si>
+  <si>
+    <t>ATTiny Program 3 Signal / State LED Signal</t>
+  </si>
+  <si>
+    <t>0v</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>State LED Signal</t>
+  </si>
+  <si>
+    <t>On-Off State Signal</t>
+  </si>
+  <si>
+    <t>Var. Freq. Signal</t>
+  </si>
+  <si>
+    <t>Uno Tone Signal 1</t>
+  </si>
+  <si>
+    <t>Uno Tone Signal 2</t>
+  </si>
+  <si>
+    <t>Uno Tone Signal 3</t>
+  </si>
+  <si>
+    <t>Uno Tone Signal 4</t>
+  </si>
+  <si>
+    <t>Uno Tone Signal Master</t>
+  </si>
+  <si>
+    <t>DDS Tone Output Signal</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2v</t>
+  </si>
+  <si>
+    <t>op amp gain</t>
+  </si>
+  <si>
+    <t>Rin</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>A = Vout/Vin = Rf/Rin</t>
+  </si>
+  <si>
+    <t>Perameters</t>
+  </si>
+  <si>
+    <t>320kHz</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>555 Timer Frequency calculation</t>
+  </si>
+  <si>
+    <t>t_high = .693(R1 + R2)C</t>
+  </si>
+  <si>
+    <t>t_low = .693(R2)C</t>
+  </si>
+  <si>
+    <t>t_high</t>
+  </si>
+  <si>
+    <t>t_low</t>
+  </si>
+  <si>
+    <t>t = t_high + t_low</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f = 1 / t</t>
+  </si>
+  <si>
+    <t>ATTiny85 Pins (Page 161 on the atttiny85 document)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outline of Signal Flow </t>
+  </si>
+  <si>
+    <t>LPF Filter Component Design</t>
+  </si>
+  <si>
+    <t>HPF Filter Component Design</t>
+  </si>
+  <si>
+    <t>Vout = Vin * (R / (R^2 + Xc^2)^.5)</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vout </t>
+  </si>
+  <si>
+    <t>Vout = Rf/Rin(V1 + V2 + V3 + V4)</t>
+  </si>
+  <si>
+    <t>speed = frequency • wavelength</t>
+  </si>
+  <si>
+    <t>m/s / 1 / s = m</t>
+  </si>
+  <si>
+    <t>f_fund (max)</t>
+  </si>
+  <si>
+    <t>f_harmonic (max)</t>
+  </si>
+  <si>
+    <t>Speed of light</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Pin output low voltage. With VCC= 5V  Vout max = .6V</t>
+  </si>
+  <si>
+    <t>Pin output High voltage. With VCC= 5V  Vout min = 4.3V</t>
+  </si>
+  <si>
+    <t>1. Signal out of the ATTiny85</t>
+  </si>
+  <si>
+    <t>2. Signal into LPF</t>
+  </si>
+  <si>
+    <t>3A. Wire</t>
+  </si>
+  <si>
+    <t>3B. Signal into EQ</t>
+  </si>
+  <si>
+    <t>5. Sgnal to speaker</t>
+  </si>
+  <si>
+    <t>High voltage worst case 4.3V</t>
+  </si>
+  <si>
+    <t>Low voltage worst case .6V</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (LPF) Component Design</t>
+  </si>
+  <si>
+    <t>f = 1 / (2πRC)</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (HPF) Component Design</t>
+  </si>
+  <si>
+    <t>4. Signal into Summing Amp</t>
+  </si>
+  <si>
+    <t>LPF Voltage Output(V_High_Worst)</t>
+  </si>
+  <si>
+    <t>LPF Voltage Output(V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>LPF Voltage Output (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>HPF Voltage Output (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>LPF Voltage Output (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>HPF Voltage Output (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>Inputs =</t>
+  </si>
+  <si>
+    <t>Outputs =</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (LPF) Component Design (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>Cascade BPF Filter (LPF) Component Design (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>5. Length calculation</t>
+  </si>
+  <si>
+    <t>Copper Velocity factor</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Random Calculations</t>
+  </si>
+  <si>
+    <t>Rf = 5k pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Signal into Summing Amp </t>
+  </si>
+  <si>
+    <t>Single Signal (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>Single Signal (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>EQ (V_High_Worst)</t>
+  </si>
+  <si>
+    <t>EQ (V_Low_Worst)</t>
+  </si>
+  <si>
+    <t>Meters</t>
+  </si>
+  <si>
+    <t>Safe length</t>
+  </si>
+  <si>
+    <t>CHebyChev Filter Component Design</t>
+  </si>
+  <si>
+    <t>Audio Range Notes</t>
+  </si>
+  <si>
+    <t>Sub Bass</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Low Midrange</t>
+  </si>
+  <si>
+    <t>Midrange</t>
+  </si>
+  <si>
+    <t>Upper Midrange</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>Brilliance</t>
+  </si>
+  <si>
+    <t>20 - 60</t>
+  </si>
+  <si>
+    <t>60 - 250</t>
+  </si>
+  <si>
+    <t>250 - 500</t>
+  </si>
+  <si>
+    <t>500 - 2k</t>
+  </si>
+  <si>
+    <t>2k - 4k</t>
+  </si>
+  <si>
+    <t>4k - 6k</t>
+  </si>
+  <si>
+    <t>6k - 20k</t>
+  </si>
+  <si>
+    <t>https://www-users.cs.york.ac.uk/~fisher/cgi-bin/lcfilter</t>
+  </si>
+  <si>
+    <t>Old Calculations</t>
+  </si>
+  <si>
+    <t>http://interface.khm.de/index.php/lab/interfaces-advanced/arduino-dds-sinewave-generator/</t>
+  </si>
+  <si>
+    <t>f_cuttoff</t>
+  </si>
+  <si>
+    <t>12.5kHz</t>
+  </si>
+  <si>
+    <t>Note: Red tex indicates used values.</t>
+  </si>
+  <si>
+    <t>How much ripple can handle on an audio application. How much can human hear</t>
+  </si>
+  <si>
     <r>
       <t>f = 1 / (2</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -184,517 +688,13 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>RC)</t>
     </r>
-  </si>
-  <si>
-    <t>Xc = 1 / ((2πfC)</t>
-  </si>
-  <si>
-    <t>Xc</t>
-  </si>
-  <si>
-    <t>Vout = Vin * (Xc / (R^2 + Xc^2)^.5)</t>
-  </si>
-  <si>
-    <t>Ohm's Law</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>V = I*R</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Power Calculation</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P = V*I </t>
-  </si>
-  <si>
-    <t>P = I^2*R</t>
-  </si>
-  <si>
-    <t>P = V^2 / R</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>INTERFACE NAME</t>
-  </si>
-  <si>
-    <t>Pin Number</t>
-  </si>
-  <si>
-    <t>Connected Signal</t>
-  </si>
-  <si>
-    <t>20khz</t>
-  </si>
-  <si>
-    <t>3 Band EQ Signal Out</t>
-  </si>
-  <si>
-    <t>LPF Signal Out</t>
-  </si>
-  <si>
-    <t>Speaker Signal In</t>
-  </si>
-  <si>
-    <t>10-40ma</t>
-  </si>
-  <si>
-    <t>25mA</t>
-  </si>
-  <si>
-    <t>Var Freq POT</t>
-  </si>
-  <si>
-    <t>Push Button</t>
-  </si>
-  <si>
-    <t>3 Band Eq</t>
-  </si>
-  <si>
-    <t>Slide Switch</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>6V</t>
-  </si>
-  <si>
-    <t>1V - 5V</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>Zacher Tiburzi</t>
-  </si>
-  <si>
-    <t>V_03</t>
-  </si>
-  <si>
-    <t>Computer / Uno</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>Serial PC-Uno Signal</t>
-  </si>
-  <si>
-    <t>Pin 13</t>
-  </si>
-  <si>
-    <t>Pin 12</t>
-  </si>
-  <si>
-    <t>Pin 11</t>
-  </si>
-  <si>
-    <t>Pin 10</t>
-  </si>
-  <si>
-    <t>Pin 9</t>
-  </si>
-  <si>
-    <t>Pin 6</t>
-  </si>
-  <si>
-    <t>Pin 5</t>
-  </si>
-  <si>
-    <t>Pin 3</t>
-  </si>
-  <si>
-    <t>Uno / DDS Pin Interface</t>
-  </si>
-  <si>
-    <t>ATTiny Program 1 Signal</t>
-  </si>
-  <si>
-    <t>ATTiny Program 2 Signal</t>
-  </si>
-  <si>
-    <t>ATTiny Program 3 Signal</t>
-  </si>
-  <si>
-    <t>ATTiny Program 4 Signal</t>
-  </si>
-  <si>
-    <t>ATTIny85</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>ATTiny Program 1 Signal / Var. Freq. Signal</t>
-  </si>
-  <si>
-    <t>ATTiny Program 2 Signal / On-Off State Signal</t>
-  </si>
-  <si>
-    <t>ATTiny Program 3 Signal / State LED Signal</t>
-  </si>
-  <si>
-    <t>0v</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>State LED Signal</t>
-  </si>
-  <si>
-    <t>On-Off State Signal</t>
-  </si>
-  <si>
-    <t>Var. Freq. Signal</t>
-  </si>
-  <si>
-    <t>Uno Tone Signal 1</t>
-  </si>
-  <si>
-    <t>Uno Tone Signal 2</t>
-  </si>
-  <si>
-    <t>Uno Tone Signal 3</t>
-  </si>
-  <si>
-    <t>Uno Tone Signal 4</t>
-  </si>
-  <si>
-    <t>Uno Tone Signal Master</t>
-  </si>
-  <si>
-    <t>DDS Tone Output Signal</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2v</t>
-  </si>
-  <si>
-    <t>op amp gain</t>
-  </si>
-  <si>
-    <t>Rin</t>
-  </si>
-  <si>
-    <t>Rf</t>
-  </si>
-  <si>
-    <t>A = Vout/Vin = Rf/Rin</t>
-  </si>
-  <si>
-    <t>Perameters</t>
-  </si>
-  <si>
-    <t>320kHz</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>Analog</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>555 Timer Frequency calculation</t>
-  </si>
-  <si>
-    <t>t_high = .693(R1 + R2)C</t>
-  </si>
-  <si>
-    <t>t_low = .693(R2)C</t>
-  </si>
-  <si>
-    <t>t_high</t>
-  </si>
-  <si>
-    <t>t_low</t>
-  </si>
-  <si>
-    <t>t = t_high + t_low</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>f = 1 / t</t>
-  </si>
-  <si>
-    <t>ATTiny85 Pins (Page 161 on the atttiny85 document)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outline of Signal Flow </t>
-  </si>
-  <si>
-    <t>LPF Filter Component Design</t>
-  </si>
-  <si>
-    <t>HPF Filter Component Design</t>
-  </si>
-  <si>
-    <t>Vout = Vin * (R / (R^2 + Xc^2)^.5)</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vout </t>
-  </si>
-  <si>
-    <t>Vout = Rf/Rin(V1 + V2 + V3 + V4)</t>
-  </si>
-  <si>
-    <t>speed = frequency • wavelength</t>
-  </si>
-  <si>
-    <t>m/s / 1 / s = m</t>
-  </si>
-  <si>
-    <t>f_fund (max)</t>
-  </si>
-  <si>
-    <t>f_harmonic (max)</t>
-  </si>
-  <si>
-    <t>Speed of light</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t>meters</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>Pin output low voltage. With VCC= 5V  Vout max = .6V</t>
-  </si>
-  <si>
-    <t>Pin output High voltage. With VCC= 5V  Vout min = 4.3V</t>
-  </si>
-  <si>
-    <t>1. Signal out of the ATTiny85</t>
-  </si>
-  <si>
-    <t>2. Signal into LPF</t>
-  </si>
-  <si>
-    <t>3A. Wire</t>
-  </si>
-  <si>
-    <t>3B. Signal into EQ</t>
-  </si>
-  <si>
-    <t>5. Sgnal to speaker</t>
-  </si>
-  <si>
-    <t>High voltage worst case 4.3V</t>
-  </si>
-  <si>
-    <t>Low voltage worst case .6V</t>
-  </si>
-  <si>
-    <t>Cascade BPF Filter (LPF) Component Design</t>
-  </si>
-  <si>
-    <t>f = 1 / (2πRC)</t>
-  </si>
-  <si>
-    <t>Cascade BPF Filter (HPF) Component Design</t>
-  </si>
-  <si>
-    <t>4. Signal into Summing Amp</t>
-  </si>
-  <si>
-    <t>LPF Voltage Output(V_High_Worst)</t>
-  </si>
-  <si>
-    <t>LPF Voltage Output(V_Low_Worst)</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>LPF Voltage Output (V_High_Worst)</t>
-  </si>
-  <si>
-    <t>HPF Voltage Output (V_High_Worst)</t>
-  </si>
-  <si>
-    <t>LPF Voltage Output (V_Low_Worst)</t>
-  </si>
-  <si>
-    <t>HPF Voltage Output (V_Low_Worst)</t>
-  </si>
-  <si>
-    <t>Inputs =</t>
-  </si>
-  <si>
-    <t>Outputs =</t>
-  </si>
-  <si>
-    <t>Cascade BPF Filter (LPF) Component Design (V_Low_Worst)</t>
-  </si>
-  <si>
-    <t>Cascade BPF Filter (LPF) Component Design (V_High_Worst)</t>
-  </si>
-  <si>
-    <t>5. Length calculation</t>
-  </si>
-  <si>
-    <t>Copper Velocity factor</t>
-  </si>
-  <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Random Calculations</t>
-  </si>
-  <si>
-    <t>Rf = 5k pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Signal into Summing Amp </t>
-  </si>
-  <si>
-    <t>Single Signal (V_High_Worst)</t>
-  </si>
-  <si>
-    <t>Single Signal (V_Low_Worst)</t>
-  </si>
-  <si>
-    <t>EQ (V_High_Worst)</t>
-  </si>
-  <si>
-    <t>EQ (V_Low_Worst)</t>
-  </si>
-  <si>
-    <t>Meters</t>
-  </si>
-  <si>
-    <t>Safe length</t>
-  </si>
-  <si>
-    <t>CHebyChev Filter Component Design</t>
-  </si>
-  <si>
-    <t>Audio Range Notes</t>
-  </si>
-  <si>
-    <t>Sub Bass</t>
-  </si>
-  <si>
-    <t>Bass</t>
-  </si>
-  <si>
-    <t>Low Midrange</t>
-  </si>
-  <si>
-    <t>Midrange</t>
-  </si>
-  <si>
-    <t>Upper Midrange</t>
-  </si>
-  <si>
-    <t>Presence</t>
-  </si>
-  <si>
-    <t>Brilliance</t>
-  </si>
-  <si>
-    <t>20 - 60</t>
-  </si>
-  <si>
-    <t>60 - 250</t>
-  </si>
-  <si>
-    <t>250 - 500</t>
-  </si>
-  <si>
-    <t>500 - 2k</t>
-  </si>
-  <si>
-    <t>2k - 4k</t>
-  </si>
-  <si>
-    <t>4k - 6k</t>
-  </si>
-  <si>
-    <t>6k - 20k</t>
-  </si>
-  <si>
-    <t>https://www-users.cs.york.ac.uk/~fisher/cgi-bin/lcfilter</t>
-  </si>
-  <si>
-    <t>Old Calculations</t>
-  </si>
-  <si>
-    <t>http://interface.khm.de/index.php/lab/interfaces-advanced/arduino-dds-sinewave-generator/</t>
-  </si>
-  <si>
-    <t>f_cuttoff</t>
-  </si>
-  <si>
-    <t>12.5kHz</t>
-  </si>
-  <si>
-    <t>Note: Red tex indicates used values.</t>
-  </si>
-  <si>
-    <t>How much ripple can handle on an audio application. How much can human hear</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -742,17 +742,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF2C3E50"/>
-      <name val="MathJax_Math-italic"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -786,6 +775,63 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2C3E50"/>
+      <name val="MathJax_Math-italic"/>
     </font>
   </fonts>
   <fills count="4">
@@ -865,11 +911,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,18 +940,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="19" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,64 +967,65 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="19" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="20" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="21" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="20" applyAlignment="1">
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1367,38 +1408,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>42882</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24">
-        <v>42882</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1428,26 +1469,26 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -1456,7 +1497,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -1465,7 +1506,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -1474,7 +1515,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -1483,7 +1524,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -1492,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -1500,7 +1541,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>21</v>
@@ -1509,7 +1550,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1517,7 +1558,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -1526,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1534,7 +1575,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -1543,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1551,7 +1592,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -1560,7 +1601,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -1568,7 +1609,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1577,7 +1618,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -1585,7 +1626,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -1594,7 +1635,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -1602,7 +1643,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -1611,15 +1652,15 @@
         <v>24</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -1628,15 +1669,15 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -1645,15 +1686,15 @@
         <v>24</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -1662,63 +1703,63 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>69</v>
+      <c r="C21" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
@@ -1735,7 +1776,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L27" s="9"/>
     </row>
@@ -1744,10 +1785,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -1826,58 +1867,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24">
-        <v>42882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -1885,15 +1926,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>92</v>
+      <c r="A11" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -1901,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
@@ -1912,10 +1953,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -1923,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -1934,10 +1975,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
@@ -1945,10 +1986,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -1956,10 +1997,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -1967,10 +2008,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -1978,10 +2019,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
@@ -2011,12 +2052,12 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="15"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>97</v>
+      <c r="A24" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -2025,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="10"/>
     </row>
@@ -2037,10 +2078,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="10"/>
     </row>
@@ -2049,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -2071,10 +2112,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -2082,10 +2123,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -2093,10 +2134,10 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -2215,41 +2256,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>79</v>
+      <c r="B2" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>42882</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>80</v>
+      <c r="B4" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2290,8 +2331,8 @@
         <f t="shared" ref="D7:D8" si="0">B7*C7</f>
         <v>0.15</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2309,32 +2350,32 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="18">
+        <v>70</v>
+      </c>
+      <c r="B9" s="16">
         <v>0.5</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>0.1</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>0.05</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21" t="s">
-        <v>77</v>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <v>0.5</v>
@@ -2345,14 +2386,14 @@
       <c r="D10" s="8">
         <v>0.01</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
-        <v>78</v>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -2363,16 +2404,16 @@
       <c r="D11" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
-        <v>78</v>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="18">
+        <v>72</v>
+      </c>
+      <c r="B12" s="16">
         <v>0.5</v>
       </c>
       <c r="C12" s="8">
@@ -2381,14 +2422,14 @@
       <c r="D12" s="8">
         <v>0.05</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>76</v>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2399,9 +2440,9 @@
       <c r="D13" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
-        <v>76</v>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -2423,7 +2464,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
@@ -7355,2568 +7396,2106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S289"/>
+  <dimension ref="A1:S178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9" style="13" customWidth="1"/>
-    <col min="5" max="7" width="43" style="13" customWidth="1"/>
-    <col min="8" max="8" width="52.140625" style="13" customWidth="1"/>
-    <col min="9" max="10" width="38.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="13"/>
-    <col min="13" max="13" width="33.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="13"/>
-    <col min="17" max="17" width="33.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="45.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="14.42578125" style="13"/>
+    <col min="1" max="1" width="47.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="9" style="25" customWidth="1"/>
+    <col min="5" max="7" width="43" style="25" customWidth="1"/>
+    <col min="8" max="8" width="52.140625" style="25" customWidth="1"/>
+    <col min="9" max="10" width="38.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="25"/>
+    <col min="13" max="13" width="33.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="25"/>
+    <col min="17" max="17" width="33.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="14.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="30" t="s">
+      <c r="E1" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29">
+        <v>42882</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34">
-        <v>42882</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B9" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B9" s="13" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="32" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="B13" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A17" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15">
+      <c r="A19" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A20" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A21" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A22" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="36" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A24" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="28">
+        <v>100</v>
+      </c>
+      <c r="K24" s="28"/>
+      <c r="M24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="28">
+        <v>2000</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+      <c r="I25" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="28">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="M25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="28">
+        <v>330</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+      <c r="I26" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="28">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K26" s="28"/>
+      <c r="M26" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="34">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A27" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A28" s="25" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="12.75">
-      <c r="A19" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A21" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A23" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="M23" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A24" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="14">
-        <v>100</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="M24" s="14" t="s">
+      <c r="J28" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="14">
-        <v>2000</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1">
-      <c r="I25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="14">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="M25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="14">
-        <v>330</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1">
-      <c r="I26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="14">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="M26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" s="39">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A27" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="35">
+      <c r="N28" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*N25*N26)</f>
         <v>21922.815029755835</v>
       </c>
-      <c r="O28" s="35" t="s">
+      <c r="O28" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="35">
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A29" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="30">
         <f xml:space="preserve"> 0.693*(J24 + J25)* J26</f>
         <v>7.6229999999999994E-5</v>
       </c>
-      <c r="K29" s="35"/>
-      <c r="M29" s="35" t="s">
+      <c r="K29" s="30"/>
+      <c r="M29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="35">
+      <c r="N29" s="30">
         <f xml:space="preserve"> 1 / (N24*2*3.1415*N26)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="O29" s="35" t="s">
+      <c r="O29" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1">
-      <c r="I30" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="35">
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="I30" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="30">
         <f xml:space="preserve"> 0.693*(J25)* J26</f>
         <v>6.929999999999999E-5</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="M30" s="35" t="s">
+      <c r="K30" s="30"/>
+      <c r="M30" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="N30" s="35">
+      <c r="N30" s="30">
         <f xml:space="preserve"> 1 / (N24*2*3.1415*N25)</f>
         <v>2.411509653273142E-7</v>
       </c>
-      <c r="O30" s="35" t="s">
+      <c r="O30" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="P30" s="12"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1">
-      <c r="J31" s="13" t="s">
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+      <c r="J31" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A32" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="E32" s="12"/>
-      <c r="I32" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="35">
+      <c r="J32" s="30">
         <f xml:space="preserve"> J29 + J30</f>
         <v>1.4553E-4</v>
       </c>
-      <c r="K32" s="35"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A33" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="M33" s="26" t="s">
+      <c r="J33" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="N33" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="R33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1">
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="30">
         <f xml:space="preserve"> 1 / J32</f>
         <v>6871.4354428640145</v>
       </c>
-      <c r="K34" s="35"/>
-      <c r="M34" s="14" t="s">
+      <c r="K34" s="30"/>
+      <c r="M34" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="28">
         <v>2000</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="28">
         <v>2000</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1">
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N35" s="39">
+      <c r="N35" s="34">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="O35" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="R35" s="40">
+      <c r="R35" s="37">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="S35" s="14" t="s">
+      <c r="S35" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>213</v>
-      </c>
       <c r="N36" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="R36" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="30.75">
+      <c r="A37" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P36" s="12"/>
-      <c r="R36" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15">
-      <c r="A37" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="M37" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="N37" s="35">
+      <c r="N37" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*N34*N35)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="O37" s="35" t="s">
+      <c r="O37" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="R37" s="35">
+      <c r="Q37" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*R34*R35)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="S37" s="35" t="s">
+      <c r="S37" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="26.25">
-      <c r="A38" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I38" s="14" t="s">
+    <row r="38" spans="1:19" ht="45.75">
+      <c r="A38" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="28">
         <v>5</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="P38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1">
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="28">
         <v>2</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="M39" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="28">
         <v>4.3</v>
       </c>
-      <c r="O39" s="14" t="s">
+      <c r="O39" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="14" t="s">
+      <c r="Q39" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="28">
         <v>0.6</v>
       </c>
-      <c r="S39" s="14" t="s">
+      <c r="S39" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1">
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="28">
         <v>2</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="28">
         <f xml:space="preserve"> N25</f>
         <v>330</v>
       </c>
-      <c r="O40" s="14" t="s">
+      <c r="O40" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="14" t="s">
+      <c r="Q40" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40" s="28">
         <v>330</v>
       </c>
-      <c r="S40" s="14" t="s">
+      <c r="S40" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A41" s="26" t="s">
-        <v>161</v>
+      <c r="A41" s="31" t="s">
+        <v>160</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="12"/>
+        <v>213</v>
+      </c>
       <c r="J41" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L41" s="12"/>
       <c r="N41" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P41" s="12"/>
+        <v>49</v>
+      </c>
       <c r="R41" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A42" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="I42" s="35" t="s">
+      <c r="A42" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J42" s="35">
+      <c r="J42" s="30">
         <f>J38*(J40/(J40+J39))</f>
         <v>2.5</v>
       </c>
-      <c r="K42" s="35" t="s">
+      <c r="K42" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="35" t="s">
+      <c r="M42" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="N42" s="35">
+      <c r="N42" s="30">
         <f xml:space="preserve"> N39 * (N37 / SQRT((N40*N40 + N37*N37)))</f>
         <v>4.2822169928878395</v>
       </c>
-      <c r="O42" s="35" t="s">
+      <c r="O42" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="35" t="s">
+      <c r="Q42" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="R42" s="35">
+      <c r="R42" s="30">
         <f xml:space="preserve"> R39 * (R37 / (R40*R40 + R37*R37)^0.5)</f>
         <v>0.59751865017039618</v>
       </c>
-      <c r="S42" s="35" t="s">
+      <c r="S42" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A43" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" s="14">
+      <c r="A43" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="28">
         <v>0</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="28">
         <v>3900</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:19" ht="15">
-      <c r="A45" s="14" t="s">
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="34">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="I45" s="26" t="s">
+      <c r="I45" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1">
       <c r="B46" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="I46" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="28">
         <v>12</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A47" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B47" s="35">
+      <c r="A47" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*B44*B45)</f>
         <v>1855.0074255947247</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="28">
         <v>6</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="35" t="e">
+      <c r="B48" s="30" t="e">
         <f xml:space="preserve"> 1 / (B43*2*3.1415*B45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="28">
         <v>5</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="35" t="s">
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A49" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="35" t="e">
+      <c r="B49" s="30" t="e">
         <f xml:space="preserve"> 1 / (B43*2*3.1415*B44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="42"/>
+      <c r="E49" s="39"/>
       <c r="J49" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" ht="15">
-      <c r="D50" s="12"/>
-      <c r="I50" s="35" t="s">
+    </row>
+    <row r="50" spans="1:11">
+      <c r="I50" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="35">
+      <c r="J50" s="30">
         <f>J48*(J46/J47-1)</f>
         <v>5</v>
       </c>
-      <c r="K50" s="35" t="s">
+      <c r="K50" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D51" s="12"/>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="I52" s="25"/>
-      <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" s="14">
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="28">
         <v>0</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="I53" s="26" t="s">
+      <c r="I53" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="28">
+        <v>5</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="28">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A54" s="14" t="s">
+      <c r="J55" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="K55" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B56" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="I56" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="14">
-        <v>1000</v>
-      </c>
-      <c r="C54" s="14" t="s">
+      <c r="J56" s="28">
+        <v>5</v>
+      </c>
+      <c r="K56" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="I54" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="14">
-        <v>5</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A55" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="14">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="I55" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B56" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="I56" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" s="14">
-        <v>5</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A57" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="35">
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A57" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*B54*B55)</f>
         <v>7234.5289598194258</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="I57" s="12"/>
       <c r="J57" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A58" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A58" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="35" t="e">
+      <c r="B58" s="30" t="e">
         <f xml:space="preserve"> 1 / (B53*2*3.1415*B55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="I58" s="35" t="s">
+      <c r="I58" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J58" s="35">
+      <c r="J58" s="30">
         <f xml:space="preserve"> J55*J56</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K58" s="35" t="s">
+      <c r="K58" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A59" s="35" t="s">
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A59" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="35" t="e">
+      <c r="B59" s="30" t="e">
         <f xml:space="preserve"> 1 / (B53*2*3.1415*B54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="I59" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="35">
+      <c r="I59" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59" s="30">
         <f xml:space="preserve"> J54/J56</f>
         <v>1</v>
       </c>
-      <c r="K59" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="I60" s="35" t="s">
+      <c r="K59" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I60" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J60" s="35">
+      <c r="J60" s="30">
         <f xml:space="preserve"> J54/J55</f>
         <v>5000</v>
       </c>
-      <c r="K60" s="35" t="s">
+      <c r="K60" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D61" s="12"/>
-      <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A62" s="26" t="s">
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A62" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A63" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="28">
+        <v>0</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A64" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="28">
+        <v>5</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A65" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="28">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J65" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="K65" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B66" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="14">
-        <v>0</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="I63" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A64" s="14" t="s">
+      <c r="I66" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="14">
-        <v>1000</v>
-      </c>
-      <c r="C64" s="14" t="s">
+      <c r="J66" s="28">
+        <v>330</v>
+      </c>
+      <c r="K66" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="I64" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="14">
-        <v>5</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="14">
-        <v>2.1999999999999998E-8</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="I65" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J65" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="I66" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" s="14">
-        <v>330</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="1:12" ht="15">
-      <c r="A67" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B67" s="35">
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*B64*B65)</f>
         <v>7234.5289598194258</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="I67" s="12"/>
       <c r="J67" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A68" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="35" t="e">
+      <c r="B68" s="30" t="e">
         <f xml:space="preserve"> 1 / (B63*2*3.1415*B65)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="I68" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J68" s="35">
+      <c r="I68" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="30">
         <f xml:space="preserve"> J64*J65</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K68" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L68" s="12"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="35" t="s">
+      <c r="K68" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A69" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="35" t="e">
+      <c r="B69" s="30" t="e">
         <f xml:space="preserve"> 1 / (B63*2*3.1415*B64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D69" s="12"/>
       <c r="J69" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L69" s="12"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D70" s="12"/>
-      <c r="I70" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J70" s="35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I70" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J70" s="30">
         <f xml:space="preserve"> J65*J65 *J66</f>
         <v>3.3E-4</v>
       </c>
-      <c r="K70" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D71" s="12"/>
-      <c r="I71" s="12"/>
+      <c r="K70" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="J71" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A72" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="I72" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J72" s="35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A72" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="I72" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72" s="30">
         <f xml:space="preserve"> J64*J64 / J66</f>
         <v>7.575757575757576E-2</v>
       </c>
-      <c r="K72" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L72" s="12"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B73" s="14">
+      <c r="K72" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A73" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="28">
         <v>0</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="L73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="14" t="s">
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A74" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="28">
         <v>3900</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="L74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="14" t="s">
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A75" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="12"/>
-      <c r="I75" s="26" t="s">
+      <c r="I75" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I76" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" ht="15">
-      <c r="B76" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="12"/>
-      <c r="I76" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J76" s="14">
+      <c r="J76" s="28">
         <v>680</v>
       </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" ht="15">
-      <c r="A77" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77" s="35">
+      <c r="K76" s="28"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*B74*B75)</f>
         <v>1855.0074255947247</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="I77" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J77" s="14">
+      <c r="I77" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J77" s="28">
         <v>5000</v>
       </c>
-      <c r="K77" s="14"/>
-      <c r="L77" s="12"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A78" s="35" t="s">
+      <c r="K77" s="28"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A78" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="35" t="e">
+      <c r="B78" s="30" t="e">
         <f xml:space="preserve"> 1 / (B73*2*3.1415*B75)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="J78" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L78" s="12"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A79" s="35" t="s">
+      <c r="J78" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A79" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="35" t="e">
+      <c r="B79" s="30" t="e">
         <f xml:space="preserve"> 1 / (B73*2*3.1415*B74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="I79" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J79" s="35">
+      <c r="I79" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J79" s="30">
         <f xml:space="preserve"> J77 / J76</f>
         <v>7.3529411764705879</v>
       </c>
-      <c r="K79" s="35"/>
-      <c r="L79" s="12"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1">
-      <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1">
-      <c r="D81" s="12"/>
-    </row>
-    <row r="82" spans="1:8" ht="25.5">
-      <c r="A82" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B82" s="12" t="s">
+      <c r="K79" s="30"/>
+    </row>
+    <row r="82" spans="1:8" ht="30.75">
+      <c r="A82" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F82" s="12" t="s">
+      <c r="E82" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F82" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="12"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="14">
+      <c r="B83" s="28">
         <v>2000</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="28">
         <v>2000</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="B85" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="F85" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A86" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="35">
+      <c r="B86" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*B83*B84)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F86" s="35">
+      <c r="E86" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*F83*F84)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="G86" s="35" t="s">
+      <c r="G86" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H86" s="43"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1">
-      <c r="D87" s="12"/>
+      <c r="H86" s="41"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="28">
         <v>4.2822169928878395</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="28">
         <v>0.59751865017039618</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="28">
         <v>3900</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="28">
         <v>3900</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="B90" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" s="12"/>
+        <v>49</v>
+      </c>
       <c r="F90" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="35">
+      <c r="B91" s="30">
         <f xml:space="preserve"> B88 * (B86 / (B89*B89 + B86*B86)^0.5)</f>
         <v>2.9120386657026849</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F91" s="35">
+      <c r="F91" s="30">
         <f xml:space="preserve"> F88 * (F86 / (F89*F89 + F86*F86)^0.5)</f>
         <v>0.40633097660967693</v>
       </c>
-      <c r="G91" s="35" t="s">
+      <c r="G91" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1">
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1">
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-    </row>
-    <row r="94" spans="1:8" ht="25.5">
-      <c r="A94" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" s="12" t="s">
+    <row r="94" spans="1:8" ht="30.75">
+      <c r="A94" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F94" s="12" t="s">
+      <c r="E94" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G94" s="12"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="28">
         <v>2000</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="28">
         <v>2000</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="G96" s="14" t="s">
+      <c r="G96" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1">
       <c r="B97" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A98" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="12"/>
-      <c r="F97" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A98" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="35">
+      <c r="B98" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*B95*B96)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98" s="35">
+      <c r="E98" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*F95*F96)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="G98" s="35" t="s">
+      <c r="G98" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D99" s="12"/>
-    </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="14">
+      <c r="B100" s="28">
         <v>4.2822169928878395</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="28">
         <v>0.59751865017039618</v>
       </c>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="28">
         <v>1000</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F101" s="14">
+      <c r="F101" s="28">
         <v>1000</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1">
       <c r="B102" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D102" s="12"/>
+        <v>140</v>
+      </c>
       <c r="F102" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B103" s="35">
+      <c r="B103" s="30">
         <f xml:space="preserve"> B100 * (B101 / (B101*B101 + B98*B98)^0.5)</f>
         <v>1.1410281948712884</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="35">
+      <c r="F103" s="30">
         <f xml:space="preserve"> F100 * (F101 / (F101*F101 + F98*F98)^0.5)</f>
         <v>0.15921323649366811</v>
       </c>
-      <c r="G103" s="35" t="s">
+      <c r="G103" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D104" s="12"/>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D105" s="12"/>
-    </row>
-    <row r="106" spans="1:7" ht="25.5">
-      <c r="A106" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="26" t="s">
+    <row r="106" spans="1:7" ht="31.5">
+      <c r="A106" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="E106" s="31" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="14">
+      <c r="B107" s="28">
         <v>2000</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F107" s="14">
+      <c r="F107" s="28">
         <v>2000</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G107" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="14">
+      <c r="B108" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D108" s="12"/>
-      <c r="E108" s="14" t="s">
+      <c r="E108" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F108" s="14">
+      <c r="F108" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1">
       <c r="B109" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A110" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="12"/>
-      <c r="F109" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A110" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="35">
+      <c r="B110" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*B107*B108)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="12"/>
-      <c r="E110" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F110" s="35">
+      <c r="E110" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*F107*F108)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="G110" s="35" t="s">
+      <c r="G110" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="12.75">
-      <c r="D111" s="12"/>
-    </row>
+    <row r="111" spans="1:7" ht="15"/>
     <row r="112" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B112" s="14">
+      <c r="B112" s="28">
         <v>4.2822169928878395</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="14" t="s">
+      <c r="E112" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F112" s="14">
+      <c r="F112" s="28">
         <v>0.59751865017039618</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B113" s="14">
+      <c r="B113" s="28">
         <v>1000</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F113" s="14">
+      <c r="F113" s="28">
         <v>1000</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1">
       <c r="B114" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D114" s="12"/>
+        <v>49</v>
+      </c>
       <c r="F114" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B115" s="35">
+      <c r="B115" s="30">
         <f xml:space="preserve"> B112 * (B110 / (B113*B113 + B110*B110)^0.5)</f>
         <v>4.1274007598834093</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="35" t="s">
+      <c r="E115" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F115" s="35">
+      <c r="F115" s="30">
         <f xml:space="preserve"> F112 * (F110 / (F113*F113 + F110*F110)^0.5)</f>
         <v>0.57591638510001053</v>
       </c>
-      <c r="G115" s="35" t="s">
+      <c r="G115" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D116" s="12"/>
-    </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B117" s="14">
+      <c r="B117" s="28">
         <v>2000</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="14">
+      <c r="F117" s="28">
         <v>2000</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G117" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15">
-      <c r="A118" s="14" t="s">
+    <row r="118" spans="1:7">
+      <c r="A118" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B118" s="14">
+      <c r="B118" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="14" t="s">
+      <c r="E118" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F118" s="14">
+      <c r="F118" s="28">
         <v>2.1999999999999998E-8</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="G118" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1">
       <c r="B119" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A120" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="12"/>
-      <c r="F119" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A120" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B120" s="35">
+      <c r="B120" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*B117*B118)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F120" s="35">
+      <c r="E120" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" s="30">
         <f xml:space="preserve"> 1 / (2*3.1415*F117*F118)</f>
         <v>3617.2644799097129</v>
       </c>
-      <c r="G120" s="35" t="s">
+      <c r="G120" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D121" s="12"/>
-    </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B122" s="14">
+      <c r="B122" s="28">
         <v>4.1274007598834093</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D122" s="12"/>
-      <c r="E122" s="14" t="s">
+      <c r="E122" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F122" s="14">
+      <c r="F122" s="28">
         <v>0.59751865017039618</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15">
-      <c r="A123" s="14" t="s">
+    <row r="123" spans="1:7">
+      <c r="A123" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B123" s="14">
+      <c r="B123" s="28">
         <v>3900</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D123" s="12"/>
-      <c r="E123" s="14" t="s">
+      <c r="E123" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F123" s="14">
+      <c r="F123" s="28">
         <v>3900</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1">
       <c r="B124" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D124" s="12"/>
+        <v>140</v>
+      </c>
       <c r="F124" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A125" s="35" t="s">
+      <c r="A125" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B125" s="35">
+      <c r="B125" s="30">
         <f xml:space="preserve"> B122 * (B123 / (B123*B123 + B120*B120)^0.5)</f>
         <v>3.0261430207293838</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D125" s="12"/>
-      <c r="E125" s="35" t="s">
+      <c r="E125" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F125" s="35">
+      <c r="F125" s="30">
         <f xml:space="preserve"> F122 * (F123 / (F123*F123 + F120*F120)^0.5)</f>
         <v>0.4380909434682238</v>
       </c>
-      <c r="G125" s="35" t="s">
+      <c r="G125" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D128" s="12"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D129" s="12"/>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-    </row>
-    <row r="132" spans="1:6" ht="12.75">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-    </row>
-    <row r="136" spans="1:6" ht="12.75"/>
+    <row r="132" spans="1:6" ht="15"/>
+    <row r="136" spans="1:6" ht="15"/>
     <row r="143" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A144" s="31" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A144" s="26" t="s">
+      <c r="B144" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E144" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="B144" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>188</v>
-      </c>
       <c r="F144" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" s="28">
+        <v>2.9120386657026849</v>
+      </c>
+      <c r="C145" s="28"/>
+      <c r="E145" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F145" s="28">
+        <v>0.40633097660967693</v>
+      </c>
+      <c r="G145" s="28"/>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A146" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="14">
-        <v>2.9120386657026849</v>
-      </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="14" t="s">
+      <c r="B146" s="28">
+        <v>1.1410281948712884</v>
+      </c>
+      <c r="C146" s="28"/>
+      <c r="E146" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F145" s="14">
-        <v>0.40633097660967693</v>
-      </c>
-      <c r="G145" s="14"/>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A146" s="14" t="s">
+      <c r="F146" s="28">
+        <v>0.15921323649366811</v>
+      </c>
+      <c r="G146" s="28"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A147" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="14">
-        <v>1.1410281948712884</v>
-      </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="14" t="s">
+      <c r="B147" s="28">
+        <v>3.0261430207293838</v>
+      </c>
+      <c r="C147" s="28"/>
+      <c r="E147" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F146" s="14">
-        <v>0.15921323649366811</v>
-      </c>
-      <c r="G146" s="14"/>
-    </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A147" s="14" t="s">
+      <c r="F147" s="28">
+        <v>0.4380909434682238</v>
+      </c>
+      <c r="G147" s="28"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A148" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B147" s="14">
-        <v>3.0261430207293838</v>
-      </c>
-      <c r="C147" s="14"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="14" t="s">
+      <c r="B148" s="28">
+        <v>0</v>
+      </c>
+      <c r="C148" s="28"/>
+      <c r="E148" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F147" s="14">
-        <v>0.4380909434682238</v>
-      </c>
-      <c r="G147" s="14"/>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A148" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" s="14">
+      <c r="F148" s="28">
         <v>0</v>
       </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F148" s="14">
-        <v>0</v>
-      </c>
-      <c r="G148" s="14"/>
+      <c r="G148" s="28"/>
     </row>
     <row r="149" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A149" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="14">
+      <c r="A149" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" s="28">
         <v>500</v>
       </c>
-      <c r="C149" s="14">
+      <c r="C149" s="28">
         <v>5000</v>
       </c>
-      <c r="D149" s="12"/>
-      <c r="E149" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F149" s="14">
+      <c r="E149" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F149" s="28">
         <v>500</v>
       </c>
-      <c r="G149" s="14">
+      <c r="G149" s="28">
         <v>5000</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A150" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B150" s="14">
+      <c r="A150" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B150" s="28">
         <v>5600</v>
       </c>
-      <c r="C150" s="14"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F150" s="14">
+      <c r="C150" s="28"/>
+      <c r="E150" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F150" s="28">
         <v>3000</v>
       </c>
-      <c r="G150" s="14"/>
+      <c r="G150" s="28"/>
     </row>
     <row r="151" spans="1:7" ht="15.75" customHeight="1">
       <c r="B151" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D151" s="12"/>
+        <v>146</v>
+      </c>
       <c r="F151" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A152" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B152" s="35">
+      <c r="A152" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="30">
         <f xml:space="preserve"> B149/B150 * (B145 + B146 + B147 + B148)</f>
         <v>0.63207231083065685</v>
       </c>
-      <c r="C152" s="35">
+      <c r="C152" s="30">
         <f xml:space="preserve"> C149/B150 * (B145 + B146 + B147 + B148)</f>
         <v>6.3207231083065691</v>
       </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="F152" s="35">
+      <c r="E152" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F152" s="30">
         <f xml:space="preserve"> F149/F150 * (F145 + F146 + F147 + F148)</f>
         <v>0.16727252609526147</v>
       </c>
-      <c r="G152" s="35">
+      <c r="G152" s="30">
         <f xml:space="preserve"> G149/F150 * (F145 + F146 + F147 + F148)</f>
         <v>1.6727252609526149</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A155" s="26" t="s">
+      <c r="A155" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E155" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B155" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E155" s="26" t="s">
-        <v>190</v>
-      </c>
       <c r="F155" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" s="28">
+        <v>0</v>
+      </c>
+      <c r="C156" s="28"/>
+      <c r="E156" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F156" s="28">
+        <v>0</v>
+      </c>
+      <c r="G156" s="28"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A157" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B157" s="28">
         <v>0</v>
       </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="14" t="s">
+      <c r="C157" s="28"/>
+      <c r="E157" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F156" s="14">
+      <c r="F157" s="28">
         <v>0</v>
       </c>
-      <c r="G156" s="14"/>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A157" s="14" t="s">
+      <c r="G157" s="28"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A158" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B157" s="14">
+      <c r="B158" s="28">
         <v>0</v>
       </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="14" t="s">
+      <c r="C158" s="28"/>
+      <c r="E158" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F157" s="14">
+      <c r="F158" s="28">
         <v>0</v>
       </c>
-      <c r="G157" s="14"/>
-    </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A158" s="14" t="s">
+      <c r="G158" s="28"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A159" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B158" s="14">
-        <v>0</v>
-      </c>
-      <c r="C158" s="14"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="14" t="s">
+      <c r="B159" s="28">
+        <v>4.2822169928878395</v>
+      </c>
+      <c r="C159" s="28"/>
+      <c r="E159" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F158" s="14">
-        <v>0</v>
-      </c>
-      <c r="G158" s="14"/>
-    </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A159" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B159" s="14">
-        <v>4.2822169928878395</v>
-      </c>
-      <c r="C159" s="14"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F159" s="14">
+      <c r="F159" s="28">
         <v>0.59751865017039618</v>
       </c>
-      <c r="G159" s="14"/>
+      <c r="G159" s="28"/>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A160" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B160" s="14">
+      <c r="A160" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B160" s="28">
         <v>500</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="28">
         <v>5000</v>
       </c>
-      <c r="D160" s="12"/>
-      <c r="E160" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F160" s="14">
+      <c r="E160" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F160" s="28">
         <v>500</v>
       </c>
-      <c r="G160" s="14">
+      <c r="G160" s="28">
         <v>5000</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A161" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B161" s="14">
+      <c r="A161" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B161" s="28">
         <v>3900</v>
       </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F161" s="14">
+      <c r="C161" s="28"/>
+      <c r="E161" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F161" s="28">
         <v>3000</v>
       </c>
-      <c r="G161" s="14"/>
+      <c r="G161" s="28"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1">
       <c r="B162" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D162" s="12"/>
+        <v>146</v>
+      </c>
       <c r="F162" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A163" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B163" s="35">
+      <c r="A163" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B163" s="30">
         <f xml:space="preserve"> B160/B161 * (B156 + B157 + B158 + B159)</f>
         <v>0.54900217857536404</v>
       </c>
-      <c r="C163" s="35">
+      <c r="C163" s="30">
         <f xml:space="preserve"> C160/B161 * (B156 + B157 + B158 + B159)</f>
         <v>5.4900217857536413</v>
       </c>
-      <c r="D163" s="12"/>
-      <c r="E163" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="F163" s="35">
+      <c r="E163" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F163" s="30">
         <f xml:space="preserve"> F160/F161 * (F156 + F157 + F158 + F159)</f>
         <v>9.958644169506603E-2</v>
       </c>
-      <c r="G163" s="35">
+      <c r="G163" s="30">
         <f xml:space="preserve"> G160/F161 * (F156 + F157 + F158 + F159)</f>
         <v>0.9958644169506603</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A167" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B167" s="25"/>
-      <c r="D167" s="12"/>
+      <c r="A167" s="31" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" s="28">
+        <v>36000</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A169" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B168" s="14">
-        <v>36000</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D168" s="12"/>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A169" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B169" s="14">
+      <c r="B169" s="28">
         <f xml:space="preserve"> 10*B168</f>
         <v>360000</v>
       </c>
-      <c r="C169" s="14" t="s">
+      <c r="C169" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D169" s="12"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170" s="28">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C170" s="28"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A171" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B171" s="28">
+        <v>299792458</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B170" s="14">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="12"/>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A171" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B171" s="14">
-        <v>299792458</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D171" s="12"/>
-    </row>
-    <row r="172" spans="1:7" ht="15">
-      <c r="A172" s="44" t="s">
+      <c r="B172" s="43">
+        <v>535</v>
+      </c>
+      <c r="C172" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="B172" s="44">
-        <v>535</v>
-      </c>
-      <c r="C172" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D172" s="12"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1">
       <c r="B173" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C173" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C173" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D173" s="12"/>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D174" s="12"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A175" s="35" t="s">
+      <c r="A175" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B175" s="35">
+      <c r="B175" s="30">
         <f>(B171*B170) / B172</f>
         <v>360311.30933457945</v>
       </c>
-      <c r="C175" s="35" t="s">
+      <c r="C175" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D175" s="12"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A176" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B176" s="35">
+      <c r="A176" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B176" s="30">
         <f>(B171*B170) / B169</f>
         <v>535.46264026111112</v>
       </c>
-      <c r="C176" s="35" t="s">
-        <v>154</v>
+      <c r="C176" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A178" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B178" s="35">
+      <c r="A178" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B178" s="30">
         <f xml:space="preserve"> B176/20</f>
         <v>26.773132013055555</v>
       </c>
-      <c r="C178" s="35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="220" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E220" s="12"/>
-    </row>
-    <row r="221" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E221" s="12"/>
-    </row>
-    <row r="222" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E222" s="12"/>
-    </row>
-    <row r="223" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E223" s="12"/>
-    </row>
-    <row r="224" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E224" s="12"/>
-    </row>
-    <row r="225" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E225" s="12"/>
-    </row>
-    <row r="226" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E226" s="12"/>
-    </row>
-    <row r="227" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E227" s="12"/>
-    </row>
-    <row r="228" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E228" s="12"/>
-    </row>
-    <row r="229" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E229" s="12"/>
-    </row>
-    <row r="230" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E230" s="12"/>
-    </row>
-    <row r="231" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E231" s="12"/>
-    </row>
-    <row r="232" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E232" s="12"/>
-    </row>
-    <row r="233" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E233" s="12"/>
-    </row>
-    <row r="234" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E234" s="12"/>
-    </row>
-    <row r="235" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E235" s="12"/>
-    </row>
-    <row r="236" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E236" s="12"/>
-    </row>
-    <row r="237" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E237" s="12"/>
-    </row>
-    <row r="238" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E238" s="12"/>
-    </row>
-    <row r="239" spans="4:5" ht="15.75" customHeight="1">
-      <c r="E239" s="12"/>
-    </row>
-    <row r="240" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
-    </row>
-    <row r="241" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-    </row>
-    <row r="242" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-    </row>
-    <row r="243" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-    </row>
-    <row r="244" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-    </row>
-    <row r="245" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
-    </row>
-    <row r="246" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D246" s="12"/>
-      <c r="E246" s="12"/>
-    </row>
-    <row r="247" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D247" s="12"/>
-      <c r="E247" s="12"/>
-    </row>
-    <row r="248" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-    </row>
-    <row r="250" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-    </row>
-    <row r="258" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
-    </row>
-    <row r="259" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D259" s="12"/>
-      <c r="E259" s="12"/>
-    </row>
-    <row r="282" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D282" s="12"/>
-      <c r="E282" s="12"/>
-    </row>
-    <row r="283" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D283" s="12"/>
-      <c r="E283" s="12"/>
-    </row>
-    <row r="284" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D284" s="12"/>
-      <c r="E284" s="12"/>
-    </row>
-    <row r="285" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D285" s="12"/>
-      <c r="E285" s="12"/>
-    </row>
-    <row r="286" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
-    </row>
-    <row r="287" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D287" s="12"/>
-      <c r="E287" s="12"/>
-    </row>
-    <row r="288" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D288" s="12"/>
-      <c r="E288" s="12"/>
-    </row>
-    <row r="289" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D289" s="12"/>
-      <c r="E289" s="12"/>
+      <c r="C178" s="30" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
